--- a/BackTest/2019-10-24 BackTest FAB.xlsx
+++ b/BackTest/2019-10-24 BackTest FAB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.21</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>59.99999999999977</v>
+      </c>
       <c r="L12" t="n">
         <v>5.904</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2700000000000005</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>71.4285714285713</v>
+      </c>
       <c r="L13" t="n">
         <v>5.918999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.2700000000000005</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>71.4285714285713</v>
+      </c>
       <c r="L14" t="n">
         <v>5.933999999999998</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.330000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333312</v>
+      </c>
       <c r="L15" t="n">
         <v>5.942999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.3800000000000008</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>43.74999999999974</v>
+      </c>
       <c r="L16" t="n">
         <v>5.956999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.3800000000000008</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>43.74999999999974</v>
+      </c>
       <c r="L17" t="n">
         <v>5.970999999999998</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.3800000000000008</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>58.6206896551722</v>
+      </c>
       <c r="L18" t="n">
         <v>5.984999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.46</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-11.99999999999974</v>
+      </c>
       <c r="L19" t="n">
         <v>5.993999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.5</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-24.13793103448255</v>
+      </c>
       <c r="L20" t="n">
         <v>5.986999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.6200000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-46.34146341463401</v>
+      </c>
       <c r="L21" t="n">
         <v>5.967999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.6600000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-74.35897435897442</v>
+      </c>
       <c r="L22" t="n">
         <v>5.944999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.7599999999999998</v>
       </c>
       <c r="K23" t="n">
-        <v>-5.714285714285718</v>
+        <v>-38.77551020408176</v>
       </c>
       <c r="L23" t="n">
         <v>5.925999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.7699999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>-7.042253521126736</v>
+        <v>-31.81818181818184</v>
       </c>
       <c r="L24" t="n">
         <v>5.905999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.8299999999999992</v>
       </c>
       <c r="K25" t="n">
-        <v>1.298701298701272</v>
+        <v>-28.88888888888897</v>
       </c>
       <c r="L25" t="n">
         <v>5.897999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>0.879999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-4.878048780487813</v>
+        <v>-36.00000000000007</v>
       </c>
       <c r="L26" t="n">
         <v>5.88</v>
@@ -1613,7 +1635,7 @@
         <v>0.9099999999999993</v>
       </c>
       <c r="K27" t="n">
-        <v>-8.235294117647097</v>
+        <v>-39.62264150943407</v>
       </c>
       <c r="L27" t="n">
         <v>5.859</v>
@@ -1662,7 +1684,7 @@
         <v>0.919999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>-9.302325581395362</v>
+        <v>-30.43478260869584</v>
       </c>
       <c r="L28" t="n">
         <v>5.837000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>0.919999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.024096385542153</v>
+        <v>-23.80952380952399</v>
       </c>
       <c r="L29" t="n">
         <v>5.823</v>
@@ -1760,7 +1782,7 @@
         <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>-8.641975308641905</v>
+        <v>30.00000000000006</v>
       </c>
       <c r="L30" t="n">
         <v>5.823000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>1.02</v>
       </c>
       <c r="K31" t="n">
-        <v>-8.641975308641905</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L31" t="n">
         <v>5.835000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>-8.641975308641905</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L32" t="n">
         <v>5.851000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>-17.33333333333334</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L33" t="n">
         <v>5.857000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>-17.33333333333334</v>
+        <v>5.263157894737187</v>
       </c>
       <c r="L34" t="n">
         <v>5.864000000000002</v>
@@ -2013,7 +2035,7 @@
         <v>1.02</v>
       </c>
       <c r="K35" t="n">
-        <v>-10.14492753623182</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L35" t="n">
         <v>5.865000000000002</v>
@@ -2064,7 +2086,7 @@
         <v>1.02</v>
       </c>
       <c r="K36" t="n">
-        <v>-18.74999999999991</v>
+        <v>81.81818181818225</v>
       </c>
       <c r="L36" t="n">
         <v>5.871000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>1.08</v>
       </c>
       <c r="K37" t="n">
-        <v>-25.7142857142857</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L37" t="n">
         <v>5.874000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>1.140000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>-15.78947368421043</v>
+        <v>45.45454545454538</v>
       </c>
       <c r="L38" t="n">
         <v>5.884000000000003</v>
@@ -2217,7 +2239,7 @@
         <v>1.160000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>-8.57142857142863</v>
+        <v>-14.28571428571447</v>
       </c>
       <c r="L39" t="n">
         <v>5.892000000000003</v>
@@ -2268,7 +2290,7 @@
         <v>1.160000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>-3.030303030303096</v>
+        <v>-14.28571428571447</v>
       </c>
       <c r="L40" t="n">
         <v>5.890000000000002</v>
@@ -2319,7 +2341,7 @@
         <v>1.200000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>10.34482758620681</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>5.884000000000002</v>
@@ -2370,7 +2392,7 @@
         <v>1.230000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>12.28070175438583</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L42" t="n">
         <v>5.875000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K43" t="n">
-        <v>3.846153846153919</v>
+        <v>-15.38461538461525</v>
       </c>
       <c r="L43" t="n">
         <v>5.871000000000003</v>
@@ -2472,7 +2494,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K44" t="n">
-        <v>5.882352941176491</v>
+        <v>-15.38461538461525</v>
       </c>
       <c r="L44" t="n">
         <v>5.867000000000004</v>
@@ -2523,7 +2545,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>-2.127659574468029</v>
+        <v>-7.142857142857256</v>
       </c>
       <c r="L45" t="n">
         <v>5.865000000000004</v>
@@ -2574,7 +2596,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K46" t="n">
-        <v>9.523809523809474</v>
+        <v>18.18181818181807</v>
       </c>
       <c r="L46" t="n">
         <v>5.863000000000005</v>
@@ -2625,7 +2647,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K47" t="n">
-        <v>17.94871794871791</v>
+        <v>-12.50000000000021</v>
       </c>
       <c r="L47" t="n">
         <v>5.867000000000004</v>
@@ -2676,7 +2698,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K48" t="n">
-        <v>21.05263157894725</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>5.865000000000004</v>
@@ -2727,7 +2749,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K49" t="n">
-        <v>21.05263157894725</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>5.865000000000004</v>
@@ -2778,7 +2800,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.142857142857256</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L50" t="n">
         <v>5.865000000000004</v>
@@ -2829,7 +2851,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.142857142857256</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>5.869000000000004</v>
@@ -2880,7 +2902,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>-7.142857142857256</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>5.876000000000003</v>
@@ -2931,7 +2953,7 @@
         <v>1.340000000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>-18.75000000000003</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L53" t="n">
         <v>5.874000000000004</v>
@@ -2982,7 +3004,7 @@
         <v>1.400000000000002</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L54" t="n">
         <v>5.878000000000005</v>
@@ -3033,7 +3055,7 @@
         <v>1.400000000000002</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L55" t="n">
         <v>5.880000000000004</v>
@@ -3084,7 +3106,7 @@
         <v>1.400000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L56" t="n">
         <v>5.882000000000004</v>
@@ -3135,7 +3157,7 @@
         <v>1.400000000000002</v>
       </c>
       <c r="K57" t="n">
-        <v>18.75000000000003</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L57" t="n">
         <v>5.884000000000004</v>
@@ -3186,7 +3208,7 @@
         <v>1.430000000000002</v>
       </c>
       <c r="K58" t="n">
-        <v>-10.34482758620692</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L58" t="n">
         <v>5.883000000000004</v>
@@ -3237,7 +3259,7 @@
         <v>1.460000000000003</v>
       </c>
       <c r="K59" t="n">
-        <v>-13.33333333333328</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L59" t="n">
         <v>5.879000000000003</v>
@@ -3288,7 +3310,7 @@
         <v>1.470000000000002</v>
       </c>
       <c r="K60" t="n">
-        <v>-16.12903225806439</v>
+        <v>-29.41176470588211</v>
       </c>
       <c r="L60" t="n">
         <v>5.874000000000003</v>
@@ -3339,7 +3361,7 @@
         <v>1.480000000000002</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-22.22222222222217</v>
       </c>
       <c r="L61" t="n">
         <v>5.870000000000003</v>
@@ -3390,7 +3412,7 @@
         <v>1.540000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>29.03225806451624</v>
+        <v>30.00000000000009</v>
       </c>
       <c r="L62" t="n">
         <v>5.872000000000002</v>
@@ -3441,7 +3463,7 @@
         <v>1.540000000000003</v>
       </c>
       <c r="K63" t="n">
-        <v>15.38461538461536</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>5.878000000000002</v>
@@ -3492,7 +3514,7 @@
         <v>1.600000000000003</v>
       </c>
       <c r="K64" t="n">
-        <v>-6.250000000000121</v>
+        <v>-30.00000000000009</v>
       </c>
       <c r="L64" t="n">
         <v>5.872000000000002</v>
@@ -3543,7 +3565,7 @@
         <v>1.650000000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>2.857142857142784</v>
+        <v>-4.000000000000256</v>
       </c>
       <c r="L65" t="n">
         <v>5.871000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>1.660000000000003</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-7.69230769230785</v>
       </c>
       <c r="L66" t="n">
         <v>5.869000000000002</v>
@@ -3645,7 +3667,7 @@
         <v>1.660000000000003</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>4.347826086956421</v>
       </c>
       <c r="L67" t="n">
         <v>5.867000000000003</v>
@@ -3696,7 +3718,7 @@
         <v>1.660000000000003</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L68" t="n">
         <v>5.868000000000003</v>
@@ -3747,7 +3769,7 @@
         <v>1.660000000000003</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>26.31578947368406</v>
       </c>
       <c r="L69" t="n">
         <v>5.872000000000003</v>
@@ -3798,7 +3820,7 @@
         <v>1.660000000000003</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>22.22222222222217</v>
       </c>
       <c r="L70" t="n">
         <v>5.877000000000002</v>
@@ -3849,7 +3871,7 @@
         <v>1.660000000000003</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L71" t="n">
         <v>5.881000000000002</v>
@@ -3900,7 +3922,7 @@
         <v>1.710000000000003</v>
       </c>
       <c r="K72" t="n">
-        <v>-12.19512195121944</v>
+        <v>-41.17647058823548</v>
       </c>
       <c r="L72" t="n">
         <v>5.874000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>1.710000000000003</v>
       </c>
       <c r="K73" t="n">
-        <v>-2.702702702702638</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L73" t="n">
         <v>5.867000000000003</v>
@@ -4002,7 +4024,7 @@
         <v>1.710000000000003</v>
       </c>
       <c r="K74" t="n">
-        <v>-22.58064516129038</v>
+        <v>-100</v>
       </c>
       <c r="L74" t="n">
         <v>5.866000000000002</v>
@@ -4053,7 +4075,7 @@
         <v>1.710000000000003</v>
       </c>
       <c r="K75" t="n">
-        <v>-22.58064516129038</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>5.860000000000002</v>
@@ -4104,7 +4126,7 @@
         <v>1.710000000000003</v>
       </c>
       <c r="K76" t="n">
-        <v>-22.58064516129038</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>5.855000000000002</v>
@@ -4155,7 +4177,7 @@
         <v>1.760000000000002</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.555555555555679</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>5.855000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>1.760000000000002</v>
       </c>
       <c r="K78" t="n">
-        <v>3.030303030302965</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>5.855000000000002</v>
@@ -4257,7 +4279,7 @@
         <v>1.810000000000002</v>
       </c>
       <c r="K79" t="n">
-        <v>-2.857142857142799</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>5.850000000000002</v>
@@ -4308,7 +4330,7 @@
         <v>1.810000000000002</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>5.845000000000002</v>
@@ -4359,7 +4381,7 @@
         <v>1.860000000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>10.5263157894737</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>5.845000000000002</v>
@@ -4410,7 +4432,7 @@
         <v>1.860000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>-6.250000000000157</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>5.850000000000003</v>
@@ -4461,7 +4483,7 @@
         <v>1.880000000000003</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>41.17647058823548</v>
       </c>
       <c r="L83" t="n">
         <v>5.857000000000004</v>
@@ -4512,7 +4534,7 @@
         <v>1.880000000000003</v>
       </c>
       <c r="K84" t="n">
-        <v>21.42857142857165</v>
+        <v>41.17647058823548</v>
       </c>
       <c r="L84" t="n">
         <v>5.864000000000004</v>
@@ -4563,7 +4585,7 @@
         <v>1.880000000000003</v>
       </c>
       <c r="K85" t="n">
-        <v>4.347826086956824</v>
+        <v>41.17647058823548</v>
       </c>
       <c r="L85" t="n">
         <v>5.871000000000005</v>
@@ -4614,7 +4636,7 @@
         <v>1.950000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>31.03448275862073</v>
+        <v>47.36842105263162</v>
       </c>
       <c r="L86" t="n">
         <v>5.885000000000005</v>
@@ -4665,7 +4687,7 @@
         <v>2.000000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>41.17647058823533</v>
+        <v>58.33333333333336</v>
       </c>
       <c r="L87" t="n">
         <v>5.899000000000004</v>
@@ -4716,7 +4738,7 @@
         <v>2.020000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>44.44444444444456</v>
+        <v>100</v>
       </c>
       <c r="L88" t="n">
         <v>5.915000000000004</v>
@@ -4767,7 +4789,7 @@
         <v>2.030000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>40.54054054054072</v>
+        <v>90.90909090909109</v>
       </c>
       <c r="L89" t="n">
         <v>5.935000000000004</v>
@@ -4818,7 +4840,7 @@
         <v>2.040000000000003</v>
       </c>
       <c r="K90" t="n">
-        <v>36.84210526315782</v>
+        <v>77.77777777777733</v>
       </c>
       <c r="L90" t="n">
         <v>5.954000000000003</v>
@@ -4869,7 +4891,7 @@
         <v>2.060000000000003</v>
       </c>
       <c r="K91" t="n">
-        <v>40</v>
+        <v>79.99999999999964</v>
       </c>
       <c r="L91" t="n">
         <v>5.970000000000004</v>
@@ -4920,7 +4942,7 @@
         <v>2.060000000000003</v>
       </c>
       <c r="K92" t="n">
-        <v>59.9999999999999</v>
+        <v>77.77777777777733</v>
       </c>
       <c r="L92" t="n">
         <v>5.986000000000003</v>
@@ -4971,7 +4993,7 @@
         <v>2.060000000000003</v>
       </c>
       <c r="K93" t="n">
-        <v>59.9999999999999</v>
+        <v>77.77777777777733</v>
       </c>
       <c r="L93" t="n">
         <v>6.000000000000004</v>
@@ -5022,7 +5044,7 @@
         <v>2.060000000000003</v>
       </c>
       <c r="K94" t="n">
-        <v>59.9999999999999</v>
+        <v>77.77777777777733</v>
       </c>
       <c r="L94" t="n">
         <v>6.014000000000004</v>
@@ -5073,7 +5095,7 @@
         <v>2.060000000000003</v>
       </c>
       <c r="K95" t="n">
-        <v>59.9999999999999</v>
+        <v>63.63636363636319</v>
       </c>
       <c r="L95" t="n">
         <v>6.028000000000004</v>
@@ -5124,7 +5146,7 @@
         <v>2.070000000000003</v>
       </c>
       <c r="K96" t="n">
-        <v>55.55555555555556</v>
+        <v>14.28571428571501</v>
       </c>
       <c r="L96" t="n">
         <v>6.034000000000003</v>
@@ -5175,7 +5197,7 @@
         <v>2.080000000000004</v>
       </c>
       <c r="K97" t="n">
-        <v>43.74999999999974</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>6.034000000000003</v>
@@ -5226,7 +5248,7 @@
         <v>2.120000000000003</v>
       </c>
       <c r="K98" t="n">
-        <v>27.7777777777779</v>
+        <v>-55.5555555555549</v>
       </c>
       <c r="L98" t="n">
         <v>6.028000000000004</v>
@@ -5277,7 +5299,7 @@
         <v>2.120000000000003</v>
       </c>
       <c r="K99" t="n">
-        <v>48.38709677419358</v>
+        <v>-49.99999999999889</v>
       </c>
       <c r="L99" t="n">
         <v>6.023000000000003</v>
@@ -5328,7 +5350,7 @@
         <v>2.120000000000003</v>
       </c>
       <c r="K100" t="n">
-        <v>48.38709677419358</v>
+        <v>-100</v>
       </c>
       <c r="L100" t="n">
         <v>6.019000000000004</v>
@@ -5379,7 +5401,7 @@
         <v>2.120000000000003</v>
       </c>
       <c r="K101" t="n">
-        <v>38.46153846153857</v>
+        <v>-100</v>
       </c>
       <c r="L101" t="n">
         <v>6.013000000000004</v>
@@ -5430,7 +5452,7 @@
         <v>2.120000000000003</v>
       </c>
       <c r="K102" t="n">
-        <v>38.46153846153857</v>
+        <v>-100</v>
       </c>
       <c r="L102" t="n">
         <v>6.007000000000004</v>
@@ -5481,7 +5503,7 @@
         <v>2.160000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>42.85714285714268</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L103" t="n">
         <v>6.005000000000004</v>
@@ -5532,7 +5554,7 @@
         <v>2.160000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>42.85714285714268</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L104" t="n">
         <v>6.003000000000005</v>
@@ -5583,7 +5605,7 @@
         <v>2.160000000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>42.85714285714268</v>
+        <v>-11.11111111111199</v>
       </c>
       <c r="L105" t="n">
         <v>6.001000000000006</v>
@@ -5634,7 +5656,7 @@
         <v>2.170000000000003</v>
       </c>
       <c r="K106" t="n">
-        <v>27.27272727272742</v>
+        <v>11.11111111111199</v>
       </c>
       <c r="L106" t="n">
         <v>6.001000000000005</v>
@@ -5685,7 +5707,7 @@
         <v>2.170000000000003</v>
       </c>
       <c r="K107" t="n">
-        <v>5.88235294117684</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
         <v>6.002000000000005</v>
@@ -5736,7 +5758,7 @@
         <v>2.280000000000003</v>
       </c>
       <c r="K108" t="n">
-        <v>-46.15384615384608</v>
+        <v>-37.50000000000028</v>
       </c>
       <c r="L108" t="n">
         <v>5.996000000000005</v>
@@ -5787,7 +5809,7 @@
         <v>2.360000000000003</v>
       </c>
       <c r="K109" t="n">
-        <v>-9.09090909090914</v>
+        <v>8.333333333333147</v>
       </c>
       <c r="L109" t="n">
         <v>5.998000000000005</v>
@@ -5838,7 +5860,7 @@
         <v>2.360000000000003</v>
       </c>
       <c r="K110" t="n">
-        <v>-6.249999999999861</v>
+        <v>8.333333333333147</v>
       </c>
       <c r="L110" t="n">
         <v>6.000000000000004</v>
@@ -5889,7 +5911,7 @@
         <v>2.390000000000003</v>
       </c>
       <c r="K111" t="n">
-        <v>-21.21212121212129</v>
+        <v>-3.703703703703947</v>
       </c>
       <c r="L111" t="n">
         <v>5.999000000000004</v>
@@ -5940,7 +5962,7 @@
         <v>2.390000000000003</v>
       </c>
       <c r="K112" t="n">
-        <v>-21.21212121212129</v>
+        <v>-21.73913043478241</v>
       </c>
       <c r="L112" t="n">
         <v>5.998000000000003</v>
@@ -5991,7 +6013,7 @@
         <v>2.430000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>-8.108108108108173</v>
+        <v>-3.703703703703606</v>
       </c>
       <c r="L113" t="n">
         <v>5.997000000000004</v>
@@ -6042,7 +6064,7 @@
         <v>2.440000000000003</v>
       </c>
       <c r="K114" t="n">
-        <v>-5.263157894736965</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>5.997000000000004</v>
@@ -6093,7 +6115,7 @@
         <v>2.440000000000003</v>
       </c>
       <c r="K115" t="n">
-        <v>-5.263157894736965</v>
+        <v>-3.703703703703947</v>
       </c>
       <c r="L115" t="n">
         <v>5.997000000000004</v>
@@ -6144,7 +6166,7 @@
         <v>2.440000000000003</v>
       </c>
       <c r="K116" t="n">
-        <v>-2.702702702702884</v>
+        <v>-3.703703703703947</v>
       </c>
       <c r="L116" t="n">
         <v>5.996000000000004</v>
@@ -6195,7 +6217,7 @@
         <v>2.520000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>-18.18181818181806</v>
+        <v>8.333333333333549</v>
       </c>
       <c r="L117" t="n">
         <v>5.987000000000004</v>
@@ -6246,7 +6268,7 @@
         <v>2.520000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>-10.00000000000002</v>
+        <v>-37.49999999999993</v>
       </c>
       <c r="L118" t="n">
         <v>5.989000000000003</v>
@@ -6297,7 +6319,7 @@
         <v>2.520000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>-10.00000000000002</v>
+        <v>-37.49999999999993</v>
       </c>
       <c r="L119" t="n">
         <v>5.983000000000002</v>
@@ -6348,7 +6370,7 @@
         <v>2.520000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>-10.00000000000002</v>
+        <v>-23.07692307692276</v>
       </c>
       <c r="L120" t="n">
         <v>5.977000000000002</v>
@@ -6399,7 +6421,7 @@
         <v>2.520000000000002</v>
       </c>
       <c r="K121" t="n">
-        <v>-10.00000000000002</v>
+        <v>-23.07692307692276</v>
       </c>
       <c r="L121" t="n">
         <v>5.974000000000002</v>
@@ -6450,7 +6472,7 @@
         <v>2.610000000000003</v>
       </c>
       <c r="K122" t="n">
-        <v>-26.5306122448981</v>
+        <v>-88.88888888888911</v>
       </c>
       <c r="L122" t="n">
         <v>5.962000000000002</v>
@@ -6501,7 +6523,7 @@
         <v>2.610000000000003</v>
       </c>
       <c r="K123" t="n">
-        <v>-37.77777777777767</v>
+        <v>-100</v>
       </c>
       <c r="L123" t="n">
         <v>5.946000000000002</v>
@@ -6552,7 +6574,7 @@
         <v>2.690000000000003</v>
       </c>
       <c r="K124" t="n">
-        <v>-16.98113207547163</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L124" t="n">
         <v>5.937000000000002</v>
@@ -6603,7 +6625,7 @@
         <v>2.780000000000003</v>
       </c>
       <c r="K125" t="n">
-        <v>-29.03225806451604</v>
+        <v>-52.94117647058817</v>
       </c>
       <c r="L125" t="n">
         <v>5.919000000000002</v>
@@ -6654,7 +6676,7 @@
         <v>2.790000000000003</v>
       </c>
       <c r="K126" t="n">
-        <v>-32.25806451612905</v>
+        <v>-40.74074074074079</v>
       </c>
       <c r="L126" t="n">
         <v>5.900000000000003</v>
@@ -6705,7 +6727,7 @@
         <v>2.870000000000003</v>
       </c>
       <c r="K127" t="n">
-        <v>-17.14285714285715</v>
+        <v>-8.57142857142863</v>
       </c>
       <c r="L127" t="n">
         <v>5.897000000000003</v>
@@ -6756,7 +6778,7 @@
         <v>2.930000000000003</v>
       </c>
       <c r="K128" t="n">
-        <v>-10.76923076923081</v>
+        <v>-21.95121951219525</v>
       </c>
       <c r="L128" t="n">
         <v>5.888000000000003</v>
@@ -6807,7 +6829,7 @@
         <v>2.990000000000004</v>
       </c>
       <c r="K129" t="n">
-        <v>-14.28571428571425</v>
+        <v>-6.382978723404288</v>
       </c>
       <c r="L129" t="n">
         <v>5.885000000000002</v>
@@ -6858,7 +6880,7 @@
         <v>2.990000000000004</v>
       </c>
       <c r="K130" t="n">
-        <v>-14.28571428571425</v>
+        <v>-6.382978723404288</v>
       </c>
       <c r="L130" t="n">
         <v>5.882000000000002</v>
@@ -6909,7 +6931,7 @@
         <v>2.990000000000004</v>
       </c>
       <c r="K131" t="n">
-        <v>-9.999999999999925</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L131" t="n">
         <v>5.879000000000002</v>
@@ -6960,7 +6982,7 @@
         <v>2.990000000000004</v>
       </c>
       <c r="K132" t="n">
-        <v>-9.999999999999925</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L132" t="n">
         <v>5.885000000000002</v>
@@ -7011,7 +7033,7 @@
         <v>2.990000000000004</v>
       </c>
       <c r="K133" t="n">
-        <v>-17.85714285714278</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L133" t="n">
         <v>5.891000000000002</v>
@@ -7062,7 +7084,7 @@
         <v>2.990000000000004</v>
       </c>
       <c r="K134" t="n">
-        <v>-19.99999999999987</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>5.889000000000002</v>
@@ -7113,7 +7135,7 @@
         <v>2.990000000000004</v>
       </c>
       <c r="K135" t="n">
-        <v>-19.99999999999987</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L135" t="n">
         <v>5.896000000000003</v>
@@ -7164,7 +7186,7 @@
         <v>2.990000000000004</v>
       </c>
       <c r="K136" t="n">
-        <v>-19.99999999999987</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>5.904000000000002</v>
@@ -7215,7 +7237,7 @@
         <v>2.990000000000004</v>
       </c>
       <c r="K137" t="n">
-        <v>-6.382978723404288</v>
+        <v>100</v>
       </c>
       <c r="L137" t="n">
         <v>5.904000000000002</v>
@@ -7265,9 +7287,7 @@
       <c r="J138" t="n">
         <v>2.990000000000004</v>
       </c>
-      <c r="K138" t="n">
-        <v>-6.382978723404288</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>5.910000000000002</v>
       </c>
@@ -7316,9 +7336,7 @@
       <c r="J139" t="n">
         <v>2.990000000000004</v>
       </c>
-      <c r="K139" t="n">
-        <v>-6.382978723404288</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>5.910000000000002</v>
       </c>
@@ -7368,7 +7386,7 @@
         <v>3.050000000000004</v>
       </c>
       <c r="K140" t="n">
-        <v>-16.98113207547177</v>
+        <v>-100</v>
       </c>
       <c r="L140" t="n">
         <v>5.904000000000002</v>
@@ -7419,7 +7437,7 @@
         <v>3.110000000000005</v>
       </c>
       <c r="K141" t="n">
-        <v>-5.084745762711885</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>5.904000000000002</v>
@@ -7470,7 +7488,7 @@
         <v>3.110000000000005</v>
       </c>
       <c r="K142" t="n">
-        <v>12.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>5.904000000000002</v>
@@ -7521,7 +7539,7 @@
         <v>3.110000000000005</v>
       </c>
       <c r="K143" t="n">
-        <v>12.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>5.904000000000002</v>
@@ -7572,7 +7590,7 @@
         <v>3.110000000000005</v>
       </c>
       <c r="K144" t="n">
-        <v>-4.761904761904641</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>5.904000000000002</v>
@@ -7623,7 +7641,7 @@
         <v>3.110000000000005</v>
       </c>
       <c r="K145" t="n">
-        <v>21.21212121212118</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>5.904000000000002</v>
@@ -7674,7 +7692,7 @@
         <v>3.110000000000005</v>
       </c>
       <c r="K146" t="n">
-        <v>24.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>5.904000000000002</v>
@@ -7776,7 +7794,7 @@
         <v>3.170000000000005</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>5.898000000000001</v>
@@ -7827,7 +7845,7 @@
         <v>3.230000000000006</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>5.898000000000001</v>
@@ -7878,7 +7896,7 @@
         <v>3.310000000000006</v>
       </c>
       <c r="K150" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L150" t="n">
         <v>5.896000000000002</v>
@@ -7929,7 +7947,7 @@
         <v>3.310000000000006</v>
       </c>
       <c r="K151" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L151" t="n">
         <v>5.888000000000003</v>
@@ -7980,7 +7998,7 @@
         <v>3.310000000000006</v>
       </c>
       <c r="K152" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L152" t="n">
         <v>5.880000000000003</v>
@@ -8031,7 +8049,7 @@
         <v>3.310000000000006</v>
       </c>
       <c r="K153" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L153" t="n">
         <v>5.872000000000003</v>
@@ -8082,7 +8100,7 @@
         <v>3.310000000000006</v>
       </c>
       <c r="K154" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L154" t="n">
         <v>5.864000000000003</v>
@@ -8133,7 +8151,7 @@
         <v>3.310000000000006</v>
       </c>
       <c r="K155" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L155" t="n">
         <v>5.856000000000003</v>
@@ -8184,7 +8202,7 @@
         <v>3.310000000000006</v>
       </c>
       <c r="K156" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L156" t="n">
         <v>5.848000000000003</v>
@@ -8235,7 +8253,7 @@
         <v>3.310000000000006</v>
       </c>
       <c r="K157" t="n">
-        <v>-24.99999999999986</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L157" t="n">
         <v>5.840000000000003</v>
@@ -8286,7 +8304,7 @@
         <v>3.310000000000006</v>
       </c>
       <c r="K158" t="n">
-        <v>-24.99999999999986</v>
+        <v>-100</v>
       </c>
       <c r="L158" t="n">
         <v>5.838000000000003</v>
@@ -8336,9 +8354,7 @@
       <c r="J159" t="n">
         <v>3.310000000000006</v>
       </c>
-      <c r="K159" t="n">
-        <v>-24.99999999999986</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>5.830000000000004</v>
       </c>
@@ -8388,7 +8404,7 @@
         <v>3.390000000000006</v>
       </c>
       <c r="K160" t="n">
-        <v>17.64705882352947</v>
+        <v>100</v>
       </c>
       <c r="L160" t="n">
         <v>5.838000000000004</v>
@@ -8439,7 +8455,7 @@
         <v>3.430000000000006</v>
       </c>
       <c r="K161" t="n">
-        <v>-12.49999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>5.842000000000004</v>
@@ -8490,7 +8506,7 @@
         <v>3.430000000000006</v>
       </c>
       <c r="K162" t="n">
-        <v>-12.49999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L162" t="n">
         <v>5.846000000000005</v>
@@ -8541,7 +8557,7 @@
         <v>3.430000000000006</v>
       </c>
       <c r="K163" t="n">
-        <v>-12.49999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>5.850000000000006</v>
@@ -8592,7 +8608,7 @@
         <v>3.470000000000006</v>
       </c>
       <c r="K164" t="n">
-        <v>-22.22222222222217</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>5.850000000000006</v>
@@ -8643,7 +8659,7 @@
         <v>3.470000000000006</v>
       </c>
       <c r="K165" t="n">
-        <v>-22.22222222222217</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>5.850000000000006</v>
@@ -8694,7 +8710,7 @@
         <v>3.480000000000006</v>
       </c>
       <c r="K166" t="n">
-        <v>-18.91891891891894</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L166" t="n">
         <v>5.851000000000006</v>
@@ -8745,7 +8761,7 @@
         <v>3.490000000000006</v>
       </c>
       <c r="K167" t="n">
-        <v>-21.05263157894735</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>5.851000000000006</v>
@@ -8796,7 +8812,7 @@
         <v>3.490000000000006</v>
       </c>
       <c r="K168" t="n">
-        <v>-6.249999999999861</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>5.851000000000006</v>
@@ -8847,7 +8863,7 @@
         <v>3.490000000000006</v>
       </c>
       <c r="K169" t="n">
-        <v>-30.76923076923082</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L169" t="n">
         <v>5.851000000000006</v>
@@ -8898,7 +8914,7 @@
         <v>3.490000000000006</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L170" t="n">
         <v>5.843000000000006</v>
@@ -8949,7 +8965,7 @@
         <v>3.490000000000006</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L171" t="n">
         <v>5.839000000000007</v>
@@ -9000,7 +9016,7 @@
         <v>3.490000000000006</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L172" t="n">
         <v>5.835000000000007</v>
@@ -9051,7 +9067,7 @@
         <v>3.520000000000006</v>
       </c>
       <c r="K173" t="n">
-        <v>14.28571428571441</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L173" t="n">
         <v>5.834000000000009</v>
@@ -9153,7 +9169,7 @@
         <v>3.580000000000006</v>
       </c>
       <c r="K175" t="n">
-        <v>11.11111111111118</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L175" t="n">
         <v>5.837000000000009</v>
@@ -9204,7 +9220,7 @@
         <v>3.580000000000006</v>
       </c>
       <c r="K176" t="n">
-        <v>11.11111111111118</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>5.839000000000008</v>
@@ -9255,7 +9271,7 @@
         <v>3.580000000000006</v>
       </c>
       <c r="K177" t="n">
-        <v>11.11111111111118</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L177" t="n">
         <v>5.842000000000009</v>
@@ -9306,7 +9322,7 @@
         <v>3.600000000000007</v>
       </c>
       <c r="K178" t="n">
-        <v>3.448275862068881</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L178" t="n">
         <v>5.843000000000009</v>
@@ -9357,7 +9373,7 @@
         <v>3.600000000000007</v>
       </c>
       <c r="K179" t="n">
-        <v>3.448275862068881</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L179" t="n">
         <v>5.84400000000001</v>
@@ -9408,7 +9424,7 @@
         <v>3.610000000000007</v>
       </c>
       <c r="K180" t="n">
-        <v>-36.3636363636363</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>5.84400000000001</v>
@@ -9459,7 +9475,7 @@
         <v>3.650000000000007</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L181" t="n">
         <v>5.848000000000011</v>
@@ -9510,7 +9526,7 @@
         <v>3.650000000000007</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L182" t="n">
         <v>5.852000000000011</v>
@@ -9561,7 +9577,7 @@
         <v>3.650000000000007</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L183" t="n">
         <v>5.853000000000011</v>
@@ -9612,7 +9628,7 @@
         <v>3.660000000000006</v>
       </c>
       <c r="K184" t="n">
-        <v>26.31578947368406</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L184" t="n">
         <v>5.858000000000011</v>
@@ -9663,7 +9679,7 @@
         <v>3.710000000000006</v>
       </c>
       <c r="K185" t="n">
-        <v>41.66666666666648</v>
+        <v>53.84615384615342</v>
       </c>
       <c r="L185" t="n">
         <v>5.865000000000011</v>
@@ -9714,7 +9730,7 @@
         <v>3.720000000000007</v>
       </c>
       <c r="K186" t="n">
-        <v>41.6666666666667</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L186" t="n">
         <v>5.87300000000001</v>
@@ -9765,7 +9781,7 @@
         <v>3.780000000000007</v>
       </c>
       <c r="K187" t="n">
-        <v>17.24137931034466</v>
+        <v>22.22222222222217</v>
       </c>
       <c r="L187" t="n">
         <v>5.87500000000001</v>
@@ -9816,7 +9832,7 @@
         <v>3.790000000000007</v>
       </c>
       <c r="K188" t="n">
-        <v>13.33333333333328</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L188" t="n">
         <v>5.87800000000001</v>
@@ -9867,7 +9883,7 @@
         <v>3.850000000000007</v>
       </c>
       <c r="K189" t="n">
-        <v>27.77777777777758</v>
+        <v>41.66666666666648</v>
       </c>
       <c r="L189" t="n">
         <v>5.887000000000009</v>
@@ -9918,7 +9934,7 @@
         <v>3.900000000000007</v>
       </c>
       <c r="K190" t="n">
-        <v>12.19512195121944</v>
+        <v>3.999999999999915</v>
       </c>
       <c r="L190" t="n">
         <v>5.892000000000008</v>
@@ -9969,7 +9985,7 @@
         <v>3.930000000000007</v>
       </c>
       <c r="K191" t="n">
-        <v>18.18181818181815</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L191" t="n">
         <v>5.896000000000009</v>
@@ -10020,7 +10036,7 @@
         <v>3.950000000000007</v>
       </c>
       <c r="K192" t="n">
-        <v>13.04347826086943</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L192" t="n">
         <v>5.898000000000009</v>
@@ -10071,7 +10087,7 @@
         <v>3.950000000000007</v>
       </c>
       <c r="K193" t="n">
-        <v>6.976744186046338</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L193" t="n">
         <v>5.900000000000007</v>
@@ -10122,7 +10138,7 @@
         <v>3.980000000000007</v>
       </c>
       <c r="K194" t="n">
-        <v>6.97674418604656</v>
+        <v>-25.92592592592566</v>
       </c>
       <c r="L194" t="n">
         <v>5.898000000000009</v>
@@ -10173,7 +10189,7 @@
         <v>4.010000000000006</v>
       </c>
       <c r="K195" t="n">
-        <v>6.976744186046367</v>
+        <v>-17.24137931034512</v>
       </c>
       <c r="L195" t="n">
         <v>5.894000000000007</v>
@@ -10224,7 +10240,7 @@
         <v>4.010000000000006</v>
       </c>
       <c r="K196" t="n">
-        <v>6.976744186046367</v>
+        <v>4.347826086956454</v>
       </c>
       <c r="L196" t="n">
         <v>5.889000000000007</v>
@@ -10275,7 +10291,7 @@
         <v>4.030000000000006</v>
       </c>
       <c r="K197" t="n">
-        <v>2.222222222222178</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>5.888000000000007</v>
@@ -10326,7 +10342,7 @@
         <v>4.030000000000006</v>
       </c>
       <c r="K198" t="n">
-        <v>6.976744186046588</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>5.888000000000007</v>
@@ -10377,7 +10393,7 @@
         <v>4.030000000000006</v>
       </c>
       <c r="K199" t="n">
-        <v>6.976744186046588</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L199" t="n">
         <v>5.882000000000007</v>
@@ -10428,7 +10444,7 @@
         <v>4.030000000000006</v>
       </c>
       <c r="K200" t="n">
-        <v>9.523809523809554</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L200" t="n">
         <v>5.881000000000006</v>
@@ -10479,7 +10495,7 @@
         <v>4.030000000000006</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L201" t="n">
         <v>5.877000000000007</v>
@@ -10530,7 +10546,7 @@
         <v>4.030000000000006</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L202" t="n">
         <v>5.875000000000007</v>
@@ -10581,7 +10597,7 @@
         <v>4.030000000000006</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L203" t="n">
         <v>5.873000000000007</v>
@@ -10632,7 +10648,7 @@
         <v>4.030000000000006</v>
       </c>
       <c r="K204" t="n">
-        <v>-2.702702702702651</v>
+        <v>-100</v>
       </c>
       <c r="L204" t="n">
         <v>5.874000000000008</v>
@@ -10683,7 +10699,7 @@
         <v>4.030000000000006</v>
       </c>
       <c r="K205" t="n">
-        <v>-18.74999999999991</v>
+        <v>-100</v>
       </c>
       <c r="L205" t="n">
         <v>5.872000000000009</v>
@@ -10733,9 +10749,7 @@
       <c r="J206" t="n">
         <v>4.030000000000006</v>
       </c>
-      <c r="K206" t="n">
-        <v>-22.58064516129051</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>5.870000000000009</v>
       </c>
@@ -10785,7 +10799,7 @@
         <v>4.040000000000005</v>
       </c>
       <c r="K207" t="n">
-        <v>-7.692307692307587</v>
+        <v>-100</v>
       </c>
       <c r="L207" t="n">
         <v>5.869000000000009</v>
@@ -10836,7 +10850,7 @@
         <v>4.060000000000005</v>
       </c>
       <c r="K208" t="n">
-        <v>3.703703703703655</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>5.87000000000001</v>
@@ -10887,7 +10901,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K209" t="n">
-        <v>-36.0000000000002</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L209" t="n">
         <v>5.86700000000001</v>
@@ -10938,7 +10952,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K210" t="n">
-        <v>-20.00000000000018</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L210" t="n">
         <v>5.86400000000001</v>
@@ -10989,7 +11003,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K211" t="n">
-        <v>-41.17647058823591</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L211" t="n">
         <v>5.86100000000001</v>
@@ -11040,7 +11054,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K212" t="n">
-        <v>-33.33333333333373</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L212" t="n">
         <v>5.858000000000009</v>
@@ -11091,7 +11105,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K213" t="n">
-        <v>-33.33333333333373</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L213" t="n">
         <v>5.855000000000009</v>
@@ -11142,7 +11156,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K214" t="n">
-        <v>-16.66666666666729</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L214" t="n">
         <v>5.852000000000009</v>
@@ -11193,7 +11207,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K215" t="n">
-        <v>-55.55555555555599</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L215" t="n">
         <v>5.849000000000009</v>
@@ -11244,7 +11258,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K216" t="n">
-        <v>-55.55555555555599</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L216" t="n">
         <v>5.846000000000009</v>
@@ -11295,7 +11309,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K217" t="n">
-        <v>-42.85714285714358</v>
+        <v>-100</v>
       </c>
       <c r="L217" t="n">
         <v>5.844000000000008</v>
@@ -11345,9 +11359,7 @@
       <c r="J218" t="n">
         <v>4.100000000000005</v>
       </c>
-      <c r="K218" t="n">
-        <v>-42.85714285714358</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>5.840000000000009</v>
       </c>
@@ -11396,9 +11408,7 @@
       <c r="J219" t="n">
         <v>4.100000000000005</v>
       </c>
-      <c r="K219" t="n">
-        <v>-42.85714285714358</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>5.840000000000008</v>
       </c>
@@ -11447,9 +11457,7 @@
       <c r="J220" t="n">
         <v>4.100000000000005</v>
       </c>
-      <c r="K220" t="n">
-        <v>-42.85714285714358</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>5.840000000000008</v>
       </c>
@@ -11499,7 +11507,7 @@
         <v>4.130000000000005</v>
       </c>
       <c r="K221" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L221" t="n">
         <v>5.843000000000008</v>
@@ -11550,7 +11558,7 @@
         <v>4.160000000000005</v>
       </c>
       <c r="K222" t="n">
-        <v>-23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>5.843000000000008</v>
@@ -11601,7 +11609,7 @@
         <v>4.160000000000005</v>
       </c>
       <c r="K223" t="n">
-        <v>-23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>5.843000000000008</v>
@@ -11652,7 +11660,7 @@
         <v>4.160000000000005</v>
       </c>
       <c r="K224" t="n">
-        <v>-23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>5.843000000000008</v>
@@ -11703,7 +11711,7 @@
         <v>4.160000000000005</v>
       </c>
       <c r="K225" t="n">
-        <v>-23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>5.843000000000008</v>
@@ -11754,7 +11762,7 @@
         <v>4.160000000000005</v>
       </c>
       <c r="K226" t="n">
-        <v>-23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>5.843000000000008</v>
@@ -11805,7 +11813,7 @@
         <v>4.200000000000006</v>
       </c>
       <c r="K227" t="n">
-        <v>12.49999999999972</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L227" t="n">
         <v>5.847000000000007</v>
@@ -11856,7 +11864,7 @@
         <v>4.200000000000006</v>
       </c>
       <c r="K228" t="n">
-        <v>0</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L228" t="n">
         <v>5.851000000000006</v>
@@ -11958,7 +11966,7 @@
         <v>4.200000000000006</v>
       </c>
       <c r="K230" t="n">
-        <v>39.99999999999982</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L230" t="n">
         <v>5.859000000000004</v>
@@ -12009,7 +12017,7 @@
         <v>4.220000000000005</v>
       </c>
       <c r="K231" t="n">
-        <v>16.66666666666704</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L231" t="n">
         <v>5.858000000000005</v>
@@ -12060,7 +12068,7 @@
         <v>4.220000000000005</v>
       </c>
       <c r="K232" t="n">
-        <v>16.66666666666704</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L232" t="n">
         <v>5.860000000000005</v>
@@ -12111,7 +12119,7 @@
         <v>4.290000000000004</v>
       </c>
       <c r="K233" t="n">
-        <v>47.36842105263162</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L233" t="n">
         <v>5.869000000000005</v>
@@ -12162,7 +12170,7 @@
         <v>4.300000000000005</v>
       </c>
       <c r="K234" t="n">
-        <v>50.00000000000022</v>
+        <v>71.42857142857197</v>
       </c>
       <c r="L234" t="n">
         <v>5.879000000000005</v>
@@ -12213,7 +12221,7 @@
         <v>4.310000000000006</v>
       </c>
       <c r="K235" t="n">
-        <v>42.85714285714262</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L235" t="n">
         <v>5.888000000000005</v>
@@ -12264,7 +12272,7 @@
         <v>4.360000000000006</v>
       </c>
       <c r="K236" t="n">
-        <v>15.38461538461536</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>5.892000000000005</v>
@@ -12315,7 +12323,7 @@
         <v>4.420000000000006</v>
       </c>
       <c r="K237" t="n">
-        <v>31.25000000000005</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L237" t="n">
         <v>5.898000000000004</v>
@@ -12366,7 +12374,7 @@
         <v>4.460000000000006</v>
       </c>
       <c r="K238" t="n">
-        <v>16.66666666666675</v>
+        <v>7.69230769230785</v>
       </c>
       <c r="L238" t="n">
         <v>5.900000000000004</v>
@@ -12417,7 +12425,7 @@
         <v>4.470000000000006</v>
       </c>
       <c r="K239" t="n">
-        <v>18.91891891891894</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L239" t="n">
         <v>5.903000000000004</v>
@@ -12468,7 +12476,7 @@
         <v>4.510000000000006</v>
       </c>
       <c r="K240" t="n">
-        <v>7.31707317073175</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L240" t="n">
         <v>5.902000000000003</v>
@@ -12519,7 +12527,7 @@
         <v>4.540000000000006</v>
       </c>
       <c r="K241" t="n">
-        <v>7.31707317073175</v>
+        <v>12.49999999999996</v>
       </c>
       <c r="L241" t="n">
         <v>5.906000000000003</v>
@@ -12570,7 +12578,7 @@
         <v>4.580000000000006</v>
       </c>
       <c r="K242" t="n">
-        <v>4.761904761904863</v>
+        <v>-24.1379310344824</v>
       </c>
       <c r="L242" t="n">
         <v>5.906000000000003</v>
@@ -12621,7 +12629,7 @@
         <v>4.580000000000006</v>
       </c>
       <c r="K243" t="n">
-        <v>4.761904761904863</v>
+        <v>-28.57142857142848</v>
       </c>
       <c r="L243" t="n">
         <v>5.899000000000003</v>
@@ -12672,7 +12680,7 @@
         <v>4.650000000000006</v>
       </c>
       <c r="K244" t="n">
-        <v>18.36734693877547</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>5.898000000000003</v>
@@ -12723,7 +12731,7 @@
         <v>4.720000000000005</v>
       </c>
       <c r="K245" t="n">
-        <v>3.571428571428656</v>
+        <v>-5.555555555555445</v>
       </c>
       <c r="L245" t="n">
         <v>5.891000000000004</v>
@@ -12774,7 +12782,7 @@
         <v>4.730000000000005</v>
       </c>
       <c r="K246" t="n">
-        <v>5.263157894736891</v>
+        <v>-22.58064516129051</v>
       </c>
       <c r="L246" t="n">
         <v>5.890000000000002</v>
@@ -12825,7 +12833,7 @@
         <v>4.790000000000004</v>
       </c>
       <c r="K247" t="n">
-        <v>8.474576271186425</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L247" t="n">
         <v>5.889000000000003</v>
@@ -12876,7 +12884,7 @@
         <v>4.860000000000004</v>
       </c>
       <c r="K248" t="n">
-        <v>-3.030303030302973</v>
+        <v>-12.82051282051284</v>
       </c>
       <c r="L248" t="n">
         <v>5.885000000000003</v>
@@ -12927,7 +12935,7 @@
         <v>4.930000000000003</v>
       </c>
       <c r="K249" t="n">
-        <v>6.849315068493148</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L249" t="n">
         <v>5.887000000000003</v>
@@ -12978,7 +12986,7 @@
         <v>5.000000000000003</v>
       </c>
       <c r="K250" t="n">
-        <v>-2.499999999999956</v>
+        <v>-8.695652173913119</v>
       </c>
       <c r="L250" t="n">
         <v>5.886000000000004</v>

--- a/BackTest/2019-10-24 BackTest FAB.xlsx
+++ b/BackTest/2019-10-24 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S250"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>5.831666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.82</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>5.832666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>5.833666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,23 @@
         <v>5.835833333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +619,23 @@
         <v>5.836833333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +662,23 @@
         <v>5.837666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +708,18 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +749,18 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +790,18 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1499999999999995</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +828,23 @@
         <v>5.840000000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1499999999999995</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +874,18 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1499999999999995</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>59.99999999999977</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +915,18 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.2700000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>71.4285714285713</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5.918999999999999</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +956,18 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.2700000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>71.4285714285713</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.933999999999998</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +997,18 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1499999999999995</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.330000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>33.33333333333312</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.942999999999999</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +1038,18 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.3800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>43.74999999999974</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.956999999999999</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1079,18 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.3800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>43.74999999999974</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.970999999999998</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1120,18 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.3800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>58.6206896551722</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.984999999999999</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1161,18 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>-11.99999999999974</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.993999999999999</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1202,18 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>-24.13793103448255</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.986999999999999</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1243,18 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6200000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>-46.34146341463401</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5.967999999999999</v>
+        <v>5.82</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>5.9285</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1284,18 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6600000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>-74.35897435897442</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.944999999999999</v>
+        <v>5.82</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>5.924499999999999</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1325,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.7599999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>-38.77551020408176</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.925999999999999</v>
+        <v>5.82</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>5.922499999999999</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1363,23 @@
         <v>5.841999999999997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7699999999999996</v>
+        <v>5.84</v>
       </c>
       <c r="K24" t="n">
-        <v>-31.81818181818184</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.905999999999999</v>
+        <v>5.82</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1409,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.8299999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>-28.88888888888897</v>
-      </c>
-      <c r="L25" t="n">
-        <v>5.897999999999999</v>
+        <v>5.82</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>5.9205</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1450,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.879999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>-36.00000000000007</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>5.9185</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1491,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.9099999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>-39.62264150943407</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5.859</v>
+        <v>5.82</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>5.915000000000001</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1532,18 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.919999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>-30.43478260869584</v>
-      </c>
-      <c r="L28" t="n">
-        <v>5.837000000000001</v>
+        <v>5.82</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1570,23 @@
         <v>5.836499999999996</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02000000000000046</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.919999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="K29" t="n">
-        <v>-23.80952380952399</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.823</v>
+        <v>5.82</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>5.908500000000001</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1613,23 @@
         <v>5.838999999999996</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.02</v>
+        <v>5.9</v>
       </c>
       <c r="K30" t="n">
-        <v>30.00000000000006</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5.823000000000001</v>
+        <v>5.82</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>5.905000000000001</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1656,23 @@
         <v>5.840499999999995</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.02</v>
+        <v>5.9</v>
       </c>
       <c r="K31" t="n">
-        <v>44.44444444444456</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5.835000000000001</v>
+        <v>5.82</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>5.901500000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5.897333333333334</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1702,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>23.07692307692329</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.851000000000001</v>
+        <v>5.82</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>5.898000000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.900000000000001</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1743,18 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>28.00000000000011</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5.857000000000001</v>
+        <v>5.82</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>5.891500000000002</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.900666666666668</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1784,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>5.263157894737187</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.864000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>5.885000000000002</v>
-      </c>
-      <c r="N34" t="n">
-        <v>5.901333333333335</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1825,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>42.85714285714304</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.865000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>5.881500000000003</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5.902000000000002</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1866,18 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>81.81818181818225</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5.871000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>5.875500000000003</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5.902666666666669</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1907,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>24.99999999999986</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.874000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>5.866500000000004</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5.901333333333336</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1948,18 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.140000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>45.45454545454538</v>
-      </c>
-      <c r="L38" t="n">
-        <v>5.884000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>5.860500000000004</v>
-      </c>
-      <c r="N38" t="n">
-        <v>5.902000000000003</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1989,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.160000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>-14.28571428571447</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5.892000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>5.857500000000003</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5.903000000000003</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +2030,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.160000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>-14.28571428571447</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.890000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>5.856500000000003</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.900000000000003</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2071,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.200000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.884000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>5.859500000000003</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5.89566666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2112,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.230000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.875000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>5.863000000000004</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5.890333333333336</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2153,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.280000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>-15.38461538461525</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.871000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>5.864000000000003</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5.88466666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,31 +2191,23 @@
         <v>5.877666666666659</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.280000000000002</v>
+        <v>5.86</v>
       </c>
       <c r="K44" t="n">
-        <v>-15.38461538461525</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5.867000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>5.865500000000003</v>
-      </c>
-      <c r="N44" t="n">
-        <v>5.879000000000004</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2237,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>-7.142857142857256</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.865000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>5.865000000000004</v>
-      </c>
-      <c r="N45" t="n">
-        <v>5.876000000000004</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2278,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>18.18181818181807</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5.863000000000005</v>
+        <v>5.82</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>5.867000000000003</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5.871333333333337</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2319,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>-12.50000000000021</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5.867000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>5.870500000000002</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5.86666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2360,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5.865000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>5.874500000000003</v>
-      </c>
-      <c r="N48" t="n">
-        <v>5.862000000000003</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2401,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>5.865000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>5.878500000000003</v>
-      </c>
-      <c r="N49" t="n">
-        <v>5.860000000000002</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2442,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.865000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>5.877500000000002</v>
-      </c>
-      <c r="N50" t="n">
-        <v>5.859333333333336</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2483,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>100</v>
-      </c>
-      <c r="L51" t="n">
-        <v>5.869000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>5.876500000000002</v>
-      </c>
-      <c r="N51" t="n">
-        <v>5.862666666666668</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2524,18 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5.876000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>5.875500000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>5.867333333333335</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2565,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.340000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>-33.33333333333432</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5.874000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>5.8725</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5.867333333333335</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2606,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.400000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>20.00000000000036</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5.878000000000005</v>
+        <v>5.82</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>5.8725</v>
-      </c>
-      <c r="N54" t="n">
-        <v>5.869666666666668</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2647,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.400000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>20.00000000000036</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5.880000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>5.8725</v>
-      </c>
-      <c r="N55" t="n">
-        <v>5.870000000000002</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2688,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.400000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>20.00000000000036</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.882000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>5.8725</v>
-      </c>
-      <c r="N56" t="n">
-        <v>5.872000000000002</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2729,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.400000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>20.00000000000036</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5.884000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>5.875500000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>5.875000000000002</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2770,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.430000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>-7.692307692307482</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5.883000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>5.874000000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>5.877333333333335</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2811,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.460000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>-24.99999999999986</v>
-      </c>
-      <c r="L59" t="n">
-        <v>5.879000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>5.872000000000002</v>
-      </c>
-      <c r="N59" t="n">
-        <v>5.878666666666668</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2852,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.470000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>-29.41176470588211</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5.874000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>5.869500000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>5.876333333333335</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2893,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.480000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>-22.22222222222217</v>
-      </c>
-      <c r="L61" t="n">
-        <v>5.870000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>5.869500000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>5.874333333333335</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2934,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.540000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>30.00000000000009</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5.872000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>5.874000000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>5.874333333333335</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2975,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.540000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>5.878000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>5.876000000000002</v>
-      </c>
-      <c r="N63" t="n">
-        <v>5.874333333333335</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +3016,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.600000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>-30.00000000000009</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5.872000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>5.875000000000002</v>
-      </c>
-      <c r="N64" t="n">
-        <v>5.872333333333335</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +3057,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.650000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>-4.000000000000256</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.871000000000001</v>
+        <v>5.82</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>5.875500000000002</v>
-      </c>
-      <c r="N65" t="n">
-        <v>5.872000000000001</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3098,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.660000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>-7.69230769230785</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5.869000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>5.875500000000002</v>
-      </c>
-      <c r="N66" t="n">
-        <v>5.871333333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3139,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1.660000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>4.347826086956421</v>
-      </c>
-      <c r="L67" t="n">
-        <v>5.867000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>5.875500000000002</v>
-      </c>
-      <c r="N67" t="n">
-        <v>5.872666666666666</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3180,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.660000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>20</v>
-      </c>
-      <c r="L68" t="n">
-        <v>5.868000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>5.875500000000002</v>
-      </c>
-      <c r="N68" t="n">
-        <v>5.872</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3221,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.660000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>26.31578947368406</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.872000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>5.875500000000002</v>
-      </c>
-      <c r="N69" t="n">
-        <v>5.872</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3262,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.660000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>22.22222222222217</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.877000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>5.875500000000002</v>
-      </c>
-      <c r="N70" t="n">
-        <v>5.872</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3303,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.660000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>-16.66666666666704</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5.881000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>5.875500000000002</v>
-      </c>
-      <c r="N71" t="n">
-        <v>5.873333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3344,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.710000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>-41.17647058823548</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5.874000000000001</v>
+        <v>5.82</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>5.873000000000003</v>
-      </c>
-      <c r="N72" t="n">
-        <v>5.874</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3385,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1.710000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>-9.090909090908944</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.867000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>5.872500000000002</v>
-      </c>
-      <c r="N73" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3426,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.710000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L74" t="n">
-        <v>5.866000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>5.869000000000002</v>
-      </c>
-      <c r="N74" t="n">
-        <v>5.872</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3467,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.710000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5.860000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>5.865500000000002</v>
-      </c>
-      <c r="N75" t="n">
-        <v>5.870333333333334</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3505,23 @@
         <v>5.869999999999987</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.710000000000003</v>
+        <v>5.83</v>
       </c>
       <c r="K76" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5.855000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>5.862000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>5.868666666666668</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,31 +3548,23 @@
         <v>5.867666666666653</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.760000000000002</v>
+        <v>5.88</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.855000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>5.861000000000001</v>
-      </c>
-      <c r="N77" t="n">
-        <v>5.868666666666668</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3591,23 @@
         <v>5.865333333333321</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.760000000000002</v>
+        <v>5.88</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.855000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>5.8615</v>
-      </c>
-      <c r="N78" t="n">
-        <v>5.868666666666668</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3637,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1.810000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L79" t="n">
-        <v>5.850000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>5.861</v>
-      </c>
-      <c r="N79" t="n">
-        <v>5.867000000000002</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3678,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1.810000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5.845000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>5.861</v>
-      </c>
-      <c r="N80" t="n">
-        <v>5.865333333333336</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3719,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1.860000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5.845000000000002</v>
+        <v>5.82</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="N81" t="n">
-        <v>5.865333333333336</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3757,23 @@
         <v>5.86633333333332</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.860000000000002</v>
+        <v>5.88</v>
       </c>
       <c r="K82" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.850000000000003</v>
+        <v>5.82</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>5.861999999999999</v>
-      </c>
-      <c r="N82" t="n">
-        <v>5.865333333333336</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3803,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.880000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>41.17647058823548</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5.857000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>5.861999999999999</v>
-      </c>
-      <c r="N83" t="n">
-        <v>5.867333333333336</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3844,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.880000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>41.17647058823548</v>
-      </c>
-      <c r="L84" t="n">
-        <v>5.864000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>5.864999999999999</v>
-      </c>
-      <c r="N84" t="n">
-        <v>5.867333333333336</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3885,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1.880000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>41.17647058823548</v>
-      </c>
-      <c r="L85" t="n">
-        <v>5.871000000000005</v>
+        <v>5.82</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>5.865499999999999</v>
-      </c>
-      <c r="N85" t="n">
-        <v>5.867333333333336</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3926,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1499999999999995</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1.950000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>47.36842105263162</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5.885000000000005</v>
+        <v>5.82</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>5.869999999999999</v>
-      </c>
-      <c r="N86" t="n">
-        <v>5.869666666666669</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3967,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.000000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>58.33333333333336</v>
-      </c>
-      <c r="L87" t="n">
-        <v>5.899000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>5.877</v>
-      </c>
-      <c r="N87" t="n">
-        <v>5.873666666666669</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +4008,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2.020000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>100</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5.915000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>5.885</v>
-      </c>
-      <c r="N88" t="n">
-        <v>5.879333333333335</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,29 +4049,19 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.030000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>90.90909090909109</v>
-      </c>
-      <c r="L89" t="n">
-        <v>5.935000000000004</v>
+        <v>5.82</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>5.8925</v>
-      </c>
-      <c r="N89" t="n">
-        <v>5.885666666666668</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
-        <v>1</v>
+        <v>1.031082474226804</v>
       </c>
     </row>
     <row r="90">
@@ -4834,28 +4090,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.040000000000003</v>
-      </c>
-      <c r="K90" t="n">
-        <v>77.77777777777733</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5.954000000000003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>5.899500000000001</v>
-      </c>
-      <c r="N90" t="n">
-        <v>5.892000000000001</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4125,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2.060000000000003</v>
-      </c>
-      <c r="K91" t="n">
-        <v>79.99999999999964</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.970000000000004</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>5.907500000000001</v>
-      </c>
-      <c r="N91" t="n">
-        <v>5.898666666666668</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4160,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2.060000000000003</v>
-      </c>
-      <c r="K92" t="n">
-        <v>77.77777777777733</v>
-      </c>
-      <c r="L92" t="n">
-        <v>5.986000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>5.918000000000001</v>
-      </c>
-      <c r="N92" t="n">
-        <v>5.903333333333334</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4195,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2.060000000000003</v>
-      </c>
-      <c r="K93" t="n">
-        <v>77.77777777777733</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6.000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>5.928500000000001</v>
-      </c>
-      <c r="N93" t="n">
-        <v>5.908</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4230,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2.060000000000003</v>
-      </c>
-      <c r="K94" t="n">
-        <v>77.77777777777733</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.014000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>5.939000000000002</v>
-      </c>
-      <c r="N94" t="n">
-        <v>5.914666666666666</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4265,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2.060000000000003</v>
-      </c>
-      <c r="K95" t="n">
-        <v>63.63636363636319</v>
-      </c>
-      <c r="L95" t="n">
-        <v>6.028000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>5.949500000000002</v>
-      </c>
-      <c r="N95" t="n">
-        <v>5.919666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4300,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2.070000000000003</v>
-      </c>
-      <c r="K96" t="n">
-        <v>14.28571428571501</v>
-      </c>
-      <c r="L96" t="n">
-        <v>6.034000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>5.959500000000003</v>
-      </c>
-      <c r="N96" t="n">
-        <v>5.924666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4335,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2.080000000000004</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L97" t="n">
-        <v>6.034000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>5.966500000000003</v>
-      </c>
-      <c r="N97" t="n">
-        <v>5.929333333333334</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4370,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1600000000000001</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2.120000000000003</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-55.5555555555549</v>
-      </c>
-      <c r="L98" t="n">
-        <v>6.028000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>5.971500000000003</v>
-      </c>
-      <c r="N98" t="n">
-        <v>5.932666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4405,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1600000000000001</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2.120000000000003</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-49.99999999999889</v>
-      </c>
-      <c r="L99" t="n">
-        <v>6.023000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>5.979000000000004</v>
-      </c>
-      <c r="N99" t="n">
-        <v>5.936000000000001</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4440,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1600000000000001</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2.120000000000003</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L100" t="n">
-        <v>6.019000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>5.986500000000004</v>
-      </c>
-      <c r="N100" t="n">
-        <v>5.939333333333334</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4475,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1600000000000001</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2.120000000000003</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L101" t="n">
-        <v>6.013000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>5.991500000000004</v>
-      </c>
-      <c r="N101" t="n">
-        <v>5.942666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4510,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1600000000000001</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2.120000000000003</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L102" t="n">
-        <v>6.007000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>5.996500000000005</v>
-      </c>
-      <c r="N102" t="n">
-        <v>5.947666666666666</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4545,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2.160000000000002</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-20.00000000000071</v>
-      </c>
-      <c r="L103" t="n">
-        <v>6.005000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>6.002500000000004</v>
-      </c>
-      <c r="N103" t="n">
-        <v>5.953999999999999</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4580,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2.160000000000002</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-20.00000000000071</v>
-      </c>
-      <c r="L104" t="n">
-        <v>6.003000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>6.008500000000003</v>
-      </c>
-      <c r="N104" t="n">
-        <v>5.960333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4615,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2.160000000000002</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-11.11111111111199</v>
-      </c>
-      <c r="L105" t="n">
-        <v>6.001000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>6.014500000000004</v>
-      </c>
-      <c r="N105" t="n">
-        <v>5.966666666666666</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4650,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2.170000000000003</v>
-      </c>
-      <c r="K106" t="n">
-        <v>11.11111111111199</v>
-      </c>
-      <c r="L106" t="n">
-        <v>6.001000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>6.017500000000004</v>
-      </c>
-      <c r="N106" t="n">
-        <v>5.973333333333332</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4685,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2.170000000000003</v>
-      </c>
-      <c r="K107" t="n">
-        <v>100</v>
-      </c>
-      <c r="L107" t="n">
-        <v>6.002000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>6.018000000000003</v>
-      </c>
-      <c r="N107" t="n">
-        <v>5.978333333333333</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4720,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2.280000000000003</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-37.50000000000028</v>
-      </c>
-      <c r="L108" t="n">
-        <v>5.996000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>6.012000000000003</v>
-      </c>
-      <c r="N108" t="n">
-        <v>5.979666666666665</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4755,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2.360000000000003</v>
-      </c>
-      <c r="K109" t="n">
-        <v>8.333333333333147</v>
-      </c>
-      <c r="L109" t="n">
-        <v>5.998000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>6.010500000000003</v>
-      </c>
-      <c r="N109" t="n">
-        <v>5.985333333333331</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4790,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2.360000000000003</v>
-      </c>
-      <c r="K110" t="n">
-        <v>8.333333333333147</v>
-      </c>
-      <c r="L110" t="n">
-        <v>6.000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>6.009500000000004</v>
-      </c>
-      <c r="N110" t="n">
-        <v>5.990999999999998</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4825,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1499999999999995</v>
-      </c>
-      <c r="J111" t="n">
-        <v>2.390000000000003</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-3.703703703703947</v>
-      </c>
-      <c r="L111" t="n">
-        <v>5.999000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>6.006000000000003</v>
-      </c>
-      <c r="N111" t="n">
-        <v>5.993999999999998</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4860,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1499999999999995</v>
-      </c>
-      <c r="J112" t="n">
-        <v>2.390000000000003</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-21.73913043478241</v>
-      </c>
-      <c r="L112" t="n">
-        <v>5.998000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>6.002500000000003</v>
-      </c>
-      <c r="N112" t="n">
-        <v>5.996999999999998</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4895,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1899999999999995</v>
-      </c>
-      <c r="J113" t="n">
-        <v>2.430000000000003</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-3.703703703703606</v>
-      </c>
-      <c r="L113" t="n">
-        <v>5.997000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>6.001000000000003</v>
-      </c>
-      <c r="N113" t="n">
-        <v>6.000666666666664</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4930,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J114" t="n">
-        <v>2.440000000000003</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>5.997000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>6.000000000000002</v>
-      </c>
-      <c r="N114" t="n">
-        <v>6.004666666666664</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4965,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J115" t="n">
-        <v>2.440000000000003</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-3.703703703703947</v>
-      </c>
-      <c r="L115" t="n">
-        <v>5.997000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>5.999000000000001</v>
-      </c>
-      <c r="N115" t="n">
-        <v>6.008666666666665</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +5000,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J116" t="n">
-        <v>2.440000000000003</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-3.703703703703947</v>
-      </c>
-      <c r="L116" t="n">
-        <v>5.996000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>5.998500000000002</v>
-      </c>
-      <c r="N116" t="n">
-        <v>6.010333333333332</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +5035,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J117" t="n">
-        <v>2.520000000000002</v>
-      </c>
-      <c r="K117" t="n">
-        <v>8.333333333333549</v>
-      </c>
-      <c r="L117" t="n">
-        <v>5.987000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>5.994500000000001</v>
-      </c>
-      <c r="N117" t="n">
-        <v>6.007666666666664</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +5070,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J118" t="n">
-        <v>2.520000000000002</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-37.49999999999993</v>
-      </c>
-      <c r="L118" t="n">
-        <v>5.989000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>5.992500000000001</v>
-      </c>
-      <c r="N118" t="n">
-        <v>6.004333333333332</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +5105,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J119" t="n">
-        <v>2.520000000000002</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-37.49999999999993</v>
-      </c>
-      <c r="L119" t="n">
-        <v>5.983000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>5.990500000000001</v>
-      </c>
-      <c r="N119" t="n">
-        <v>6.001333333333331</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +5140,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J120" t="n">
-        <v>2.520000000000002</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-23.07692307692276</v>
-      </c>
-      <c r="L120" t="n">
-        <v>5.977000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>5.9885</v>
-      </c>
-      <c r="N120" t="n">
-        <v>5.998666666666664</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +5175,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J121" t="n">
-        <v>2.520000000000002</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-23.07692307692276</v>
-      </c>
-      <c r="L121" t="n">
-        <v>5.974000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>5.9865</v>
-      </c>
-      <c r="N121" t="n">
-        <v>5.995333333333331</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +5210,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J122" t="n">
-        <v>2.610000000000003</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-88.88888888888911</v>
-      </c>
-      <c r="L122" t="n">
-        <v>5.962000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="N122" t="n">
-        <v>5.988999999999998</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +5245,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J123" t="n">
-        <v>2.610000000000003</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L123" t="n">
-        <v>5.946000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>5.9715</v>
-      </c>
-      <c r="N123" t="n">
-        <v>5.982666666666664</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5280,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1099999999999994</v>
-      </c>
-      <c r="J124" t="n">
-        <v>2.690000000000003</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-35.99999999999994</v>
-      </c>
-      <c r="L124" t="n">
-        <v>5.937000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>5.967</v>
-      </c>
-      <c r="N124" t="n">
-        <v>5.978999999999998</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5315,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J125" t="n">
-        <v>2.780000000000003</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-52.94117647058817</v>
-      </c>
-      <c r="L125" t="n">
-        <v>5.919000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>5.958</v>
-      </c>
-      <c r="N125" t="n">
-        <v>5.972333333333332</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5350,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J126" t="n">
-        <v>2.790000000000003</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-40.74074074074079</v>
-      </c>
-      <c r="L126" t="n">
-        <v>5.900000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>5.948</v>
-      </c>
-      <c r="N126" t="n">
-        <v>5.965666666666666</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5385,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J127" t="n">
-        <v>2.870000000000003</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-8.57142857142863</v>
-      </c>
-      <c r="L127" t="n">
-        <v>5.897000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>5.941999999999999</v>
-      </c>
-      <c r="N127" t="n">
-        <v>5.961999999999999</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5420,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J128" t="n">
-        <v>2.930000000000003</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-21.95121951219525</v>
-      </c>
-      <c r="L128" t="n">
-        <v>5.888000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>5.938499999999999</v>
-      </c>
-      <c r="N128" t="n">
-        <v>5.957666666666666</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5455,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J129" t="n">
-        <v>2.990000000000004</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-6.382978723404288</v>
-      </c>
-      <c r="L129" t="n">
-        <v>5.885000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>5.933999999999999</v>
-      </c>
-      <c r="N129" t="n">
-        <v>5.955333333333332</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5490,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2.990000000000004</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-6.382978723404288</v>
-      </c>
-      <c r="L130" t="n">
-        <v>5.882000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>5.929499999999999</v>
-      </c>
-      <c r="N130" t="n">
-        <v>5.952999999999999</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5525,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2.990000000000004</v>
-      </c>
-      <c r="K131" t="n">
-        <v>15.78947368421063</v>
-      </c>
-      <c r="L131" t="n">
-        <v>5.879000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>5.926499999999999</v>
-      </c>
-      <c r="N131" t="n">
-        <v>5.950666666666666</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5560,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2.990000000000004</v>
-      </c>
-      <c r="K132" t="n">
-        <v>15.78947368421063</v>
-      </c>
-      <c r="L132" t="n">
-        <v>5.885000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>5.923499999999999</v>
-      </c>
-      <c r="N132" t="n">
-        <v>5.948333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5595,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.990000000000004</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-6.666666666666508</v>
-      </c>
-      <c r="L133" t="n">
-        <v>5.891000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>5.918499999999998</v>
-      </c>
-      <c r="N133" t="n">
-        <v>5.944666666666666</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5630,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2.990000000000004</v>
-      </c>
-      <c r="K134" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L134" t="n">
-        <v>5.889000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>5.912999999999998</v>
-      </c>
-      <c r="N134" t="n">
-        <v>5.940999999999999</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5665,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J135" t="n">
-        <v>2.990000000000004</v>
-      </c>
-      <c r="K135" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L135" t="n">
-        <v>5.896000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>5.907499999999998</v>
-      </c>
-      <c r="N135" t="n">
-        <v>5.937333333333331</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5700,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2.990000000000004</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>5.904000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>5.901999999999998</v>
-      </c>
-      <c r="N136" t="n">
-        <v>5.933333333333332</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5735,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2.990000000000004</v>
-      </c>
-      <c r="K137" t="n">
-        <v>100</v>
-      </c>
-      <c r="L137" t="n">
-        <v>5.904000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>5.900499999999998</v>
-      </c>
-      <c r="N137" t="n">
-        <v>5.929333333333331</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,26 +5770,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J138" t="n">
-        <v>2.990000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>5.910000000000002</v>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>5.898999999999998</v>
-      </c>
-      <c r="N138" t="n">
-        <v>5.928999999999998</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7331,26 +5805,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J139" t="n">
-        <v>2.990000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>5.910000000000002</v>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>5.897499999999998</v>
-      </c>
-      <c r="N139" t="n">
-        <v>5.925999999999998</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7380,28 +5840,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3.050000000000004</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L140" t="n">
-        <v>5.904000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>5.892999999999998</v>
-      </c>
-      <c r="N140" t="n">
-        <v>5.920999999999998</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,28 +5875,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3.110000000000005</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>5.904000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>5.891499999999998</v>
-      </c>
-      <c r="N141" t="n">
-        <v>5.918999999999998</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7482,28 +5910,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3.110000000000005</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" t="n">
-        <v>5.904000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>5.894499999999998</v>
-      </c>
-      <c r="N142" t="n">
-        <v>5.916999999999998</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7533,28 +5945,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J143" t="n">
-        <v>3.110000000000005</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>5.904000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>5.897499999999998</v>
-      </c>
-      <c r="N143" t="n">
-        <v>5.913666666666665</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7584,28 +5980,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3.110000000000005</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>5.904000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>5.896499999999998</v>
-      </c>
-      <c r="N144" t="n">
-        <v>5.909999999999997</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7635,28 +6015,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3.110000000000005</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>5.904000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>5.899999999999997</v>
-      </c>
-      <c r="N145" t="n">
-        <v>5.906333333333331</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7686,28 +6050,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J146" t="n">
-        <v>3.110000000000005</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>5.904000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>5.903999999999997</v>
-      </c>
-      <c r="N146" t="n">
-        <v>5.902666666666663</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7737,28 +6085,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J147" t="n">
-        <v>3.110000000000005</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>5.904000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>5.903999999999997</v>
-      </c>
-      <c r="N147" t="n">
-        <v>5.901666666666663</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7788,28 +6120,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J148" t="n">
-        <v>3.170000000000005</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L148" t="n">
-        <v>5.898000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>5.903999999999997</v>
-      </c>
-      <c r="N148" t="n">
-        <v>5.898666666666663</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7839,28 +6155,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J149" t="n">
-        <v>3.230000000000006</v>
-      </c>
-      <c r="K149" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L149" t="n">
-        <v>5.898000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>5.903999999999997</v>
-      </c>
-      <c r="N149" t="n">
-        <v>5.897666666666663</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7890,28 +6190,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J150" t="n">
-        <v>3.310000000000006</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L150" t="n">
-        <v>5.896000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>5.899999999999997</v>
-      </c>
-      <c r="N150" t="n">
-        <v>5.893999999999997</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7941,28 +6225,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J151" t="n">
-        <v>3.310000000000006</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L151" t="n">
-        <v>5.888000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>5.895999999999997</v>
-      </c>
-      <c r="N151" t="n">
-        <v>5.890333333333331</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7992,28 +6260,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3.310000000000006</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L152" t="n">
-        <v>5.880000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>5.891999999999998</v>
-      </c>
-      <c r="N152" t="n">
-        <v>5.889666666666665</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,28 +6295,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J153" t="n">
-        <v>3.310000000000006</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L153" t="n">
-        <v>5.872000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>5.887999999999997</v>
-      </c>
-      <c r="N153" t="n">
-        <v>5.888999999999998</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8094,28 +6330,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J154" t="n">
-        <v>3.310000000000006</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L154" t="n">
-        <v>5.864000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>5.883999999999998</v>
-      </c>
-      <c r="N154" t="n">
-        <v>5.885666666666665</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8145,28 +6365,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J155" t="n">
-        <v>3.310000000000006</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L155" t="n">
-        <v>5.856000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>5.879999999999997</v>
-      </c>
-      <c r="N155" t="n">
-        <v>5.885333333333333</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8196,28 +6400,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J156" t="n">
-        <v>3.310000000000006</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L156" t="n">
-        <v>5.848000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>5.875999999999998</v>
-      </c>
-      <c r="N156" t="n">
-        <v>5.885333333333333</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8247,28 +6435,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J157" t="n">
-        <v>3.310000000000006</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L157" t="n">
-        <v>5.840000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>5.871999999999998</v>
-      </c>
-      <c r="N157" t="n">
-        <v>5.882666666666666</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8298,28 +6470,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J158" t="n">
-        <v>3.310000000000006</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L158" t="n">
-        <v>5.838000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>5.867999999999998</v>
-      </c>
-      <c r="N158" t="n">
-        <v>5.882000000000001</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8346,29 +6502,19 @@
         <v>5.917333333333338</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>3.310000000000006</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>5.830000000000004</v>
-      </c>
+        <v>5.83</v>
+      </c>
+      <c r="K159" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>5.863999999999998</v>
-      </c>
-      <c r="N159" t="n">
-        <v>5.879333333333334</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8395,31 +6541,23 @@
         <v>5.916166666666672</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>3.390000000000006</v>
+        <v>5.83</v>
       </c>
       <c r="K160" t="n">
-        <v>100</v>
-      </c>
-      <c r="L160" t="n">
-        <v>5.838000000000004</v>
+        <v>5.83</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>5.866999999999998</v>
-      </c>
-      <c r="N160" t="n">
-        <v>5.879333333333334</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8446,31 +6584,23 @@
         <v>5.914333333333338</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>3.430000000000006</v>
+        <v>5.87</v>
       </c>
       <c r="K161" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L161" t="n">
-        <v>5.842000000000004</v>
+        <v>5.83</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>5.864999999999998</v>
-      </c>
-      <c r="N161" t="n">
-        <v>5.878000000000001</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8500,28 +6630,18 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J162" t="n">
-        <v>3.430000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L162" t="n">
-        <v>5.846000000000005</v>
+        <v>5.83</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>5.862999999999999</v>
-      </c>
-      <c r="N162" t="n">
-        <v>5.876666666666668</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8551,28 +6671,18 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J163" t="n">
-        <v>3.430000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L163" t="n">
-        <v>5.850000000000006</v>
+        <v>5.83</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>5.860999999999999</v>
-      </c>
-      <c r="N163" t="n">
-        <v>5.875333333333335</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8602,28 +6712,18 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J164" t="n">
-        <v>3.470000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>5.850000000000006</v>
+        <v>5.83</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>5.856999999999999</v>
-      </c>
-      <c r="N164" t="n">
-        <v>5.872666666666669</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8653,28 +6753,18 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.470000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>0</v>
-      </c>
-      <c r="L165" t="n">
-        <v>5.850000000000006</v>
+        <v>5.83</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>5.853</v>
-      </c>
-      <c r="N165" t="n">
-        <v>5.870000000000003</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8704,28 +6794,18 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J166" t="n">
-        <v>3.480000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>5.882352941176348</v>
-      </c>
-      <c r="L166" t="n">
-        <v>5.851000000000006</v>
+        <v>5.83</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>5.8495</v>
-      </c>
-      <c r="N166" t="n">
-        <v>5.867666666666669</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8755,28 +6835,18 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J167" t="n">
-        <v>3.490000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>0</v>
-      </c>
-      <c r="L167" t="n">
-        <v>5.851000000000006</v>
+        <v>5.83</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>5.845499999999999</v>
-      </c>
-      <c r="N167" t="n">
-        <v>5.865000000000004</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8806,28 +6876,18 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J168" t="n">
-        <v>3.490000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>5.851000000000006</v>
+        <v>5.83</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>5.8445</v>
-      </c>
-      <c r="N168" t="n">
-        <v>5.862333333333337</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8854,31 +6914,23 @@
         <v>5.892833333333338</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>3.490000000000006</v>
+        <v>5.83</v>
       </c>
       <c r="K169" t="n">
-        <v>-80.00000000000036</v>
-      </c>
-      <c r="L169" t="n">
-        <v>5.851000000000006</v>
+        <v>5.83</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>5.8405</v>
-      </c>
-      <c r="N169" t="n">
-        <v>5.859666666666671</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8905,31 +6957,23 @@
         <v>5.890000000000004</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>3.490000000000006</v>
+        <v>5.83</v>
       </c>
       <c r="K170" t="n">
-        <v>-66.66666666666717</v>
-      </c>
-      <c r="L170" t="n">
-        <v>5.843000000000006</v>
+        <v>5.83</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M170" t="n">
-        <v>5.8405</v>
-      </c>
-      <c r="N170" t="n">
-        <v>5.859000000000005</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8956,31 +7000,23 @@
         <v>5.887666666666671</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>3.490000000000006</v>
+        <v>5.83</v>
       </c>
       <c r="K171" t="n">
-        <v>-66.66666666666717</v>
-      </c>
-      <c r="L171" t="n">
-        <v>5.839000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M171" t="n">
-        <v>5.8405</v>
-      </c>
-      <c r="N171" t="n">
-        <v>5.856333333333339</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9007,31 +7043,23 @@
         <v>5.885333333333336</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>3.490000000000006</v>
+        <v>5.83</v>
       </c>
       <c r="K172" t="n">
-        <v>-66.66666666666717</v>
-      </c>
-      <c r="L172" t="n">
-        <v>5.835000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M172" t="n">
-        <v>5.8405</v>
-      </c>
-      <c r="N172" t="n">
-        <v>5.853666666666673</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,31 +7086,23 @@
         <v>5.882833333333337</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>3.520000000000006</v>
+        <v>5.86</v>
       </c>
       <c r="K173" t="n">
-        <v>60.00000000000071</v>
-      </c>
-      <c r="L173" t="n">
-        <v>5.834000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M173" t="n">
-        <v>5.842000000000001</v>
-      </c>
-      <c r="N173" t="n">
-        <v>5.852000000000007</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9109,31 +7129,23 @@
         <v>5.87966666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>3.550000000000006</v>
+        <v>5.83</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
-      </c>
-      <c r="L174" t="n">
-        <v>5.834000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M174" t="n">
-        <v>5.842000000000001</v>
-      </c>
-      <c r="N174" t="n">
-        <v>5.84933333333334</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9160,31 +7172,23 @@
         <v>5.877000000000004</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>3.580000000000006</v>
+        <v>5.83</v>
       </c>
       <c r="K175" t="n">
-        <v>20.00000000000036</v>
-      </c>
-      <c r="L175" t="n">
-        <v>5.837000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M175" t="n">
-        <v>5.843500000000001</v>
-      </c>
-      <c r="N175" t="n">
-        <v>5.847666666666674</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9211,31 +7215,23 @@
         <v>5.874333333333338</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>3.580000000000006</v>
+        <v>5.86</v>
       </c>
       <c r="K176" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L176" t="n">
-        <v>5.839000000000008</v>
+        <v>5.83</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M176" t="n">
-        <v>5.845000000000001</v>
-      </c>
-      <c r="N176" t="n">
-        <v>5.846000000000008</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9262,31 +7258,23 @@
         <v>5.873000000000005</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>3.580000000000006</v>
+        <v>5.86</v>
       </c>
       <c r="K177" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L177" t="n">
-        <v>5.842000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M177" t="n">
-        <v>5.846500000000001</v>
-      </c>
-      <c r="N177" t="n">
-        <v>5.844333333333342</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9313,31 +7301,23 @@
         <v>5.871333333333338</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>3.600000000000007</v>
+        <v>5.84</v>
       </c>
       <c r="K178" t="n">
-        <v>9.090909090908797</v>
-      </c>
-      <c r="L178" t="n">
-        <v>5.843000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M178" t="n">
-        <v>5.847</v>
-      </c>
-      <c r="N178" t="n">
-        <v>5.844000000000009</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9367,28 +7347,18 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J179" t="n">
-        <v>3.600000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>9.090909090908797</v>
-      </c>
-      <c r="L179" t="n">
-        <v>5.84400000000001</v>
+        <v>5.83</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M179" t="n">
-        <v>5.847500000000001</v>
-      </c>
-      <c r="N179" t="n">
-        <v>5.841666666666677</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9415,31 +7385,23 @@
         <v>5.867833333333337</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>3.610000000000007</v>
+        <v>5.83</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
-      </c>
-      <c r="L180" t="n">
-        <v>5.84400000000001</v>
+        <v>5.83</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M180" t="n">
-        <v>5.843500000000001</v>
-      </c>
-      <c r="N180" t="n">
-        <v>5.841666666666677</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9466,31 +7428,23 @@
         <v>5.866666666666671</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>3.650000000000007</v>
+        <v>5.86</v>
       </c>
       <c r="K181" t="n">
-        <v>24.99999999999986</v>
-      </c>
-      <c r="L181" t="n">
-        <v>5.848000000000011</v>
+        <v>5.83</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M181" t="n">
-        <v>5.843500000000001</v>
-      </c>
-      <c r="N181" t="n">
-        <v>5.843000000000009</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9517,31 +7471,23 @@
         <v>5.867000000000004</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>3.650000000000007</v>
+        <v>5.87</v>
       </c>
       <c r="K182" t="n">
-        <v>7.692307692307482</v>
-      </c>
-      <c r="L182" t="n">
-        <v>5.852000000000011</v>
+        <v>5.83</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M182" t="n">
-        <v>5.843500000000001</v>
-      </c>
-      <c r="N182" t="n">
-        <v>5.844333333333342</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9568,31 +7514,23 @@
         <v>5.867333333333336</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>3.650000000000007</v>
+        <v>5.87</v>
       </c>
       <c r="K183" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L183" t="n">
-        <v>5.853000000000011</v>
+        <v>5.83</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M183" t="n">
-        <v>5.843500000000001</v>
-      </c>
-      <c r="N183" t="n">
-        <v>5.845666666666675</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9622,28 +7560,18 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J184" t="n">
-        <v>3.660000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>24.99999999999945</v>
-      </c>
-      <c r="L184" t="n">
-        <v>5.858000000000011</v>
+        <v>5.83</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M184" t="n">
-        <v>5.846000000000001</v>
-      </c>
-      <c r="N184" t="n">
-        <v>5.847333333333341</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9673,28 +7601,18 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0.1099999999999994</v>
-      </c>
-      <c r="J185" t="n">
-        <v>3.710000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>53.84615384615342</v>
-      </c>
-      <c r="L185" t="n">
-        <v>5.865000000000011</v>
+        <v>5.83</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M185" t="n">
-        <v>5.851000000000001</v>
-      </c>
-      <c r="N185" t="n">
-        <v>5.850666666666674</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9724,28 +7642,18 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J186" t="n">
-        <v>3.720000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>57.14285714285696</v>
-      </c>
-      <c r="L186" t="n">
-        <v>5.87300000000001</v>
+        <v>5.83</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M186" t="n">
-        <v>5.856000000000001</v>
-      </c>
-      <c r="N186" t="n">
-        <v>5.854333333333341</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9775,28 +7683,18 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J187" t="n">
-        <v>3.780000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>22.22222222222217</v>
-      </c>
-      <c r="L187" t="n">
-        <v>5.87500000000001</v>
+        <v>5.83</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M187" t="n">
-        <v>5.858500000000001</v>
-      </c>
-      <c r="N187" t="n">
-        <v>5.856000000000007</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9826,28 +7724,18 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J188" t="n">
-        <v>3.790000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>15.78947368421063</v>
-      </c>
-      <c r="L188" t="n">
-        <v>5.87800000000001</v>
+        <v>5.83</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M188" t="n">
-        <v>5.860500000000001</v>
-      </c>
-      <c r="N188" t="n">
-        <v>5.85733333333334</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9877,28 +7765,18 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0.1099999999999994</v>
-      </c>
-      <c r="J189" t="n">
-        <v>3.850000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>41.66666666666648</v>
-      </c>
-      <c r="L189" t="n">
-        <v>5.887000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M189" t="n">
-        <v>5.865500000000001</v>
-      </c>
-      <c r="N189" t="n">
-        <v>5.860666666666673</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9928,28 +7806,18 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3.900000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>3.999999999999915</v>
-      </c>
-      <c r="L190" t="n">
-        <v>5.892000000000008</v>
+        <v>5.83</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M190" t="n">
-        <v>5.868</v>
-      </c>
-      <c r="N190" t="n">
-        <v>5.859666666666673</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9979,28 +7847,18 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J191" t="n">
-        <v>3.930000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L191" t="n">
-        <v>5.896000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M191" t="n">
-        <v>5.872000000000001</v>
-      </c>
-      <c r="N191" t="n">
-        <v>5.861000000000006</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10030,28 +7888,18 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J192" t="n">
-        <v>3.950000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>6.666666666666508</v>
-      </c>
-      <c r="L192" t="n">
-        <v>5.898000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M192" t="n">
-        <v>5.875000000000001</v>
-      </c>
-      <c r="N192" t="n">
-        <v>5.861666666666673</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10081,28 +7929,18 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J193" t="n">
-        <v>3.950000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>3.448275862068881</v>
-      </c>
-      <c r="L193" t="n">
-        <v>5.900000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M193" t="n">
-        <v>5.876500000000001</v>
-      </c>
-      <c r="N193" t="n">
-        <v>5.862333333333338</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10132,28 +7970,18 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J194" t="n">
-        <v>3.980000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>-25.92592592592566</v>
-      </c>
-      <c r="L194" t="n">
-        <v>5.898000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M194" t="n">
-        <v>5.878000000000001</v>
-      </c>
-      <c r="N194" t="n">
-        <v>5.863333333333339</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10183,28 +8011,18 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J195" t="n">
-        <v>4.010000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>-17.24137931034512</v>
-      </c>
-      <c r="L195" t="n">
-        <v>5.894000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M195" t="n">
-        <v>5.879500000000001</v>
-      </c>
-      <c r="N195" t="n">
-        <v>5.865333333333338</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10234,28 +8052,18 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J196" t="n">
-        <v>4.010000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>4.347826086956454</v>
-      </c>
-      <c r="L196" t="n">
-        <v>5.889000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M196" t="n">
-        <v>5.881000000000001</v>
-      </c>
-      <c r="N196" t="n">
-        <v>5.867000000000004</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10285,28 +8093,18 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J197" t="n">
-        <v>4.030000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>0</v>
-      </c>
-      <c r="L197" t="n">
-        <v>5.888000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M197" t="n">
-        <v>5.881500000000001</v>
-      </c>
-      <c r="N197" t="n">
-        <v>5.868333333333337</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10336,28 +8134,18 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J198" t="n">
-        <v>4.030000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L198" t="n">
-        <v>5.888000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M198" t="n">
-        <v>5.883000000000001</v>
-      </c>
-      <c r="N198" t="n">
-        <v>5.86966666666667</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10387,28 +8175,18 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J199" t="n">
-        <v>4.030000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>-7.692307692307587</v>
-      </c>
-      <c r="L199" t="n">
-        <v>5.882000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M199" t="n">
-        <v>5.884500000000001</v>
-      </c>
-      <c r="N199" t="n">
-        <v>5.871000000000003</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10438,28 +8216,18 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J200" t="n">
-        <v>4.030000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>-40.00000000000053</v>
-      </c>
-      <c r="L200" t="n">
-        <v>5.881000000000006</v>
+        <v>5.83</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M200" t="n">
-        <v>5.886500000000002</v>
-      </c>
-      <c r="N200" t="n">
-        <v>5.872333333333335</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10489,28 +8257,18 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J201" t="n">
-        <v>4.030000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L201" t="n">
-        <v>5.877000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M201" t="n">
-        <v>5.886500000000002</v>
-      </c>
-      <c r="N201" t="n">
-        <v>5.873666666666669</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10540,28 +8298,18 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J202" t="n">
-        <v>4.030000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L202" t="n">
-        <v>5.875000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M202" t="n">
-        <v>5.886500000000002</v>
-      </c>
-      <c r="N202" t="n">
-        <v>5.875000000000002</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10591,28 +8339,18 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J203" t="n">
-        <v>4.030000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>20</v>
-      </c>
-      <c r="L203" t="n">
-        <v>5.873000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M203" t="n">
-        <v>5.886500000000002</v>
-      </c>
-      <c r="N203" t="n">
-        <v>5.875333333333335</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10642,28 +8380,18 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J204" t="n">
-        <v>4.030000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L204" t="n">
-        <v>5.874000000000008</v>
+        <v>5.83</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M204" t="n">
-        <v>5.886000000000002</v>
-      </c>
-      <c r="N204" t="n">
-        <v>5.876666666666668</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10693,28 +8421,18 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J205" t="n">
-        <v>4.030000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L205" t="n">
-        <v>5.872000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M205" t="n">
-        <v>5.883000000000003</v>
-      </c>
-      <c r="N205" t="n">
-        <v>5.877000000000001</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10744,26 +8462,18 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J206" t="n">
-        <v>4.030000000000006</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>5.870000000000009</v>
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M206" t="n">
-        <v>5.879500000000003</v>
-      </c>
-      <c r="N206" t="n">
-        <v>5.877333333333334</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10793,28 +8503,18 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J207" t="n">
-        <v>4.040000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L207" t="n">
-        <v>5.869000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M207" t="n">
-        <v>5.878500000000003</v>
-      </c>
-      <c r="N207" t="n">
-        <v>5.877333333333334</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10844,28 +8544,18 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J208" t="n">
-        <v>4.060000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L208" t="n">
-        <v>5.87000000000001</v>
+        <v>5.83</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M208" t="n">
-        <v>5.879000000000003</v>
-      </c>
-      <c r="N208" t="n">
-        <v>5.878666666666667</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10895,28 +8585,18 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J209" t="n">
-        <v>4.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L209" t="n">
-        <v>5.86700000000001</v>
+        <v>5.83</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M209" t="n">
-        <v>5.874500000000003</v>
-      </c>
-      <c r="N209" t="n">
-        <v>5.878666666666667</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10946,28 +8626,18 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J210" t="n">
-        <v>4.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L210" t="n">
-        <v>5.86400000000001</v>
+        <v>5.83</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M210" t="n">
-        <v>5.872500000000004</v>
-      </c>
-      <c r="N210" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10997,28 +8667,18 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J211" t="n">
-        <v>4.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L211" t="n">
-        <v>5.86100000000001</v>
+        <v>5.83</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M211" t="n">
-        <v>5.869000000000004</v>
-      </c>
-      <c r="N211" t="n">
-        <v>5.878</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11048,28 +8708,18 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J212" t="n">
-        <v>4.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L212" t="n">
-        <v>5.858000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M212" t="n">
-        <v>5.866500000000004</v>
-      </c>
-      <c r="N212" t="n">
-        <v>5.877</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11099,28 +8749,18 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J213" t="n">
-        <v>4.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L213" t="n">
-        <v>5.855000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M213" t="n">
-        <v>5.864000000000004</v>
-      </c>
-      <c r="N213" t="n">
-        <v>5.876</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11147,31 +8787,23 @@
         <v>5.860999999999994</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>4.100000000000005</v>
+        <v>5.84</v>
       </c>
       <c r="K214" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L214" t="n">
-        <v>5.852000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M214" t="n">
-        <v>5.863000000000005</v>
-      </c>
-      <c r="N214" t="n">
-        <v>5.874666666666667</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11198,31 +8830,23 @@
         <v>5.86116666666666</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>4.100000000000005</v>
+        <v>5.83</v>
       </c>
       <c r="K215" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L215" t="n">
-        <v>5.849000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M215" t="n">
-        <v>5.860500000000004</v>
-      </c>
-      <c r="N215" t="n">
-        <v>5.871666666666667</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11249,31 +8873,23 @@
         <v>5.861333333333326</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>4.100000000000005</v>
+        <v>5.84</v>
       </c>
       <c r="K216" t="n">
-        <v>-33.33333333333432</v>
-      </c>
-      <c r="L216" t="n">
-        <v>5.846000000000009</v>
+        <v>5.83</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M216" t="n">
-        <v>5.858000000000005</v>
-      </c>
-      <c r="N216" t="n">
-        <v>5.868333333333334</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11300,31 +8916,23 @@
         <v>5.861499999999993</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>4.100000000000005</v>
+        <v>5.84</v>
       </c>
       <c r="K217" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L217" t="n">
-        <v>5.844000000000008</v>
+        <v>5.83</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M217" t="n">
-        <v>5.856500000000005</v>
-      </c>
-      <c r="N217" t="n">
-        <v>5.867000000000001</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11351,29 +8959,23 @@
         <v>5.86166666666666</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>4.100000000000005</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>5.840000000000009</v>
+        <v>5.84</v>
+      </c>
+      <c r="K218" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M218" t="n">
-        <v>5.855000000000005</v>
-      </c>
-      <c r="N218" t="n">
-        <v>5.866000000000001</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11400,29 +9002,23 @@
         <v>5.861833333333326</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>4.100000000000005</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>5.840000000000008</v>
+        <v>5.84</v>
+      </c>
+      <c r="K219" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M219" t="n">
-        <v>5.853500000000005</v>
-      </c>
-      <c r="N219" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11449,29 +9045,23 @@
         <v>5.860666666666659</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>4.100000000000005</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>5.840000000000008</v>
+        <v>5.84</v>
+      </c>
+      <c r="K220" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M220" t="n">
-        <v>5.852000000000005</v>
-      </c>
-      <c r="N220" t="n">
-        <v>5.861666666666667</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11498,31 +9088,23 @@
         <v>5.860666666666659</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
-        <v>0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>4.130000000000005</v>
+        <v>5.87</v>
       </c>
       <c r="K221" t="n">
-        <v>100</v>
-      </c>
-      <c r="L221" t="n">
-        <v>5.843000000000008</v>
+        <v>5.83</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M221" t="n">
-        <v>5.852000000000005</v>
-      </c>
-      <c r="N221" t="n">
-        <v>5.860333333333334</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11549,31 +9131,23 @@
         <v>5.860166666666658</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>4.160000000000005</v>
+        <v>5.87</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
-      </c>
-      <c r="L222" t="n">
-        <v>5.843000000000008</v>
+        <v>5.83</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M222" t="n">
-        <v>5.850500000000005</v>
-      </c>
-      <c r="N222" t="n">
-        <v>5.858666666666668</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11603,28 +9177,18 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J223" t="n">
-        <v>4.160000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>0</v>
-      </c>
-      <c r="L223" t="n">
-        <v>5.843000000000008</v>
+        <v>5.83</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M223" t="n">
-        <v>5.849000000000005</v>
-      </c>
-      <c r="N223" t="n">
-        <v>5.857000000000002</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11651,31 +9215,23 @@
         <v>5.859833333333325</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>4.160000000000005</v>
+        <v>5.84</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
-      </c>
-      <c r="L224" t="n">
-        <v>5.843000000000008</v>
+        <v>5.83</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M224" t="n">
-        <v>5.847500000000005</v>
-      </c>
-      <c r="N224" t="n">
-        <v>5.856333333333335</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11702,31 +9258,23 @@
         <v>5.859999999999991</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>4.160000000000005</v>
+        <v>5.84</v>
       </c>
       <c r="K225" t="n">
-        <v>0</v>
-      </c>
-      <c r="L225" t="n">
-        <v>5.843000000000008</v>
+        <v>5.83</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M225" t="n">
-        <v>5.846000000000005</v>
-      </c>
-      <c r="N225" t="n">
-        <v>5.854666666666669</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11753,31 +9301,23 @@
         <v>5.859999999999991</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
-        <v>0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>4.160000000000005</v>
+        <v>5.84</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
-      </c>
-      <c r="L226" t="n">
-        <v>5.843000000000008</v>
+        <v>5.83</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M226" t="n">
-        <v>5.844500000000004</v>
-      </c>
-      <c r="N226" t="n">
-        <v>5.853000000000003</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11804,31 +9344,23 @@
         <v>5.860833333333324</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>4.200000000000006</v>
+        <v>5.87</v>
       </c>
       <c r="K227" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L227" t="n">
-        <v>5.847000000000007</v>
+        <v>5.83</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M227" t="n">
-        <v>5.845500000000004</v>
-      </c>
-      <c r="N227" t="n">
-        <v>5.853333333333336</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11855,31 +9387,23 @@
         <v>5.861666666666658</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>4.200000000000006</v>
+        <v>5.88</v>
       </c>
       <c r="K228" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L228" t="n">
-        <v>5.851000000000006</v>
+        <v>5.83</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M228" t="n">
-        <v>5.845500000000004</v>
-      </c>
-      <c r="N228" t="n">
-        <v>5.853666666666669</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11909,1099 +9433,18 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J229" t="n">
-        <v>4.200000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L229" t="n">
-        <v>5.855000000000006</v>
+        <v>5.83</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M229" t="n">
-        <v>5.847500000000004</v>
-      </c>
-      <c r="N229" t="n">
-        <v>5.854000000000002</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C230" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="D230" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E230" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F230" t="n">
-        <v>4544.5853</v>
-      </c>
-      <c r="G230" t="n">
-        <v>5.863333333333325</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J230" t="n">
-        <v>4.200000000000006</v>
-      </c>
-      <c r="K230" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L230" t="n">
-        <v>5.859000000000004</v>
-      </c>
-      <c r="M230" t="n">
-        <v>5.849500000000003</v>
-      </c>
-      <c r="N230" t="n">
-        <v>5.854333333333335</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C231" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D231" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E231" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F231" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="G231" t="n">
-        <v>5.863833333333326</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J231" t="n">
-        <v>4.220000000000005</v>
-      </c>
-      <c r="K231" t="n">
-        <v>33.33333333333432</v>
-      </c>
-      <c r="L231" t="n">
-        <v>5.858000000000005</v>
-      </c>
-      <c r="M231" t="n">
-        <v>5.850500000000003</v>
-      </c>
-      <c r="N231" t="n">
-        <v>5.854000000000002</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="C232" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D232" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="E232" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F232" t="n">
-        <v>5200</v>
-      </c>
-      <c r="G232" t="n">
-        <v>5.864333333333326</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J232" t="n">
-        <v>4.220000000000005</v>
-      </c>
-      <c r="K232" t="n">
-        <v>33.33333333333432</v>
-      </c>
-      <c r="L232" t="n">
-        <v>5.860000000000005</v>
-      </c>
-      <c r="M232" t="n">
-        <v>5.851500000000003</v>
-      </c>
-      <c r="N232" t="n">
-        <v>5.853666666666669</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C233" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D233" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E233" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F233" t="n">
-        <v>10</v>
-      </c>
-      <c r="G233" t="n">
-        <v>5.865499999999993</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0.1099999999999994</v>
-      </c>
-      <c r="J233" t="n">
-        <v>4.290000000000004</v>
-      </c>
-      <c r="K233" t="n">
-        <v>69.23076923076965</v>
-      </c>
-      <c r="L233" t="n">
-        <v>5.869000000000005</v>
-      </c>
-      <c r="M233" t="n">
-        <v>5.856000000000003</v>
-      </c>
-      <c r="N233" t="n">
-        <v>5.855666666666669</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C234" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D234" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E234" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F234" t="n">
-        <v>161562.1582</v>
-      </c>
-      <c r="G234" t="n">
-        <v>5.867333333333326</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J234" t="n">
-        <v>4.300000000000005</v>
-      </c>
-      <c r="K234" t="n">
-        <v>71.42857142857197</v>
-      </c>
-      <c r="L234" t="n">
-        <v>5.879000000000005</v>
-      </c>
-      <c r="M234" t="n">
-        <v>5.861000000000002</v>
-      </c>
-      <c r="N234" t="n">
-        <v>5.858000000000002</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C235" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D235" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E235" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F235" t="n">
-        <v>21</v>
-      </c>
-      <c r="G235" t="n">
-        <v>5.868499999999993</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0.1099999999999994</v>
-      </c>
-      <c r="J235" t="n">
-        <v>4.310000000000006</v>
-      </c>
-      <c r="K235" t="n">
-        <v>59.99999999999977</v>
-      </c>
-      <c r="L235" t="n">
-        <v>5.888000000000005</v>
-      </c>
-      <c r="M235" t="n">
-        <v>5.865500000000003</v>
-      </c>
-      <c r="N235" t="n">
-        <v>5.860000000000002</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C236" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="D236" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E236" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F236" t="n">
-        <v>78.84999999999999</v>
-      </c>
-      <c r="G236" t="n">
-        <v>5.868833333333326</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J236" t="n">
-        <v>4.360000000000006</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0</v>
-      </c>
-      <c r="L236" t="n">
-        <v>5.892000000000005</v>
-      </c>
-      <c r="M236" t="n">
-        <v>5.867500000000002</v>
-      </c>
-      <c r="N236" t="n">
-        <v>5.860333333333335</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C237" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D237" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E237" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F237" t="n">
-        <v>10</v>
-      </c>
-      <c r="G237" t="n">
-        <v>5.870166666666659</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J237" t="n">
-        <v>4.420000000000006</v>
-      </c>
-      <c r="K237" t="n">
-        <v>27.27272727272742</v>
-      </c>
-      <c r="L237" t="n">
-        <v>5.898000000000004</v>
-      </c>
-      <c r="M237" t="n">
-        <v>5.872500000000002</v>
-      </c>
-      <c r="N237" t="n">
-        <v>5.863000000000001</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C238" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D238" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E238" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F238" t="n">
-        <v>25676.987</v>
-      </c>
-      <c r="G238" t="n">
-        <v>5.871166666666658</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J238" t="n">
-        <v>4.460000000000006</v>
-      </c>
-      <c r="K238" t="n">
-        <v>7.69230769230785</v>
-      </c>
-      <c r="L238" t="n">
-        <v>5.900000000000004</v>
-      </c>
-      <c r="M238" t="n">
-        <v>5.875500000000002</v>
-      </c>
-      <c r="N238" t="n">
-        <v>5.863666666666669</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="C239" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="D239" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="E239" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F239" t="n">
-        <v>148081.4839</v>
-      </c>
-      <c r="G239" t="n">
-        <v>5.872333333333327</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J239" t="n">
-        <v>4.470000000000006</v>
-      </c>
-      <c r="K239" t="n">
-        <v>11.11111111111118</v>
-      </c>
-      <c r="L239" t="n">
-        <v>5.903000000000004</v>
-      </c>
-      <c r="M239" t="n">
-        <v>5.879000000000002</v>
-      </c>
-      <c r="N239" t="n">
-        <v>5.866000000000001</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C240" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D240" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E240" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F240" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="G240" t="n">
-        <v>5.872999999999993</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J240" t="n">
-        <v>4.510000000000006</v>
-      </c>
-      <c r="K240" t="n">
-        <v>3.448275862068881</v>
-      </c>
-      <c r="L240" t="n">
-        <v>5.902000000000003</v>
-      </c>
-      <c r="M240" t="n">
-        <v>5.880500000000002</v>
-      </c>
-      <c r="N240" t="n">
-        <v>5.867000000000002</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C241" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D241" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E241" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F241" t="n">
-        <v>17398.706</v>
-      </c>
-      <c r="G241" t="n">
-        <v>5.873499999999993</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J241" t="n">
-        <v>4.540000000000006</v>
-      </c>
-      <c r="K241" t="n">
-        <v>12.49999999999996</v>
-      </c>
-      <c r="L241" t="n">
-        <v>5.906000000000003</v>
-      </c>
-      <c r="M241" t="n">
-        <v>5.882000000000002</v>
-      </c>
-      <c r="N241" t="n">
-        <v>5.869000000000002</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C242" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D242" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E242" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F242" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="G242" t="n">
-        <v>5.873333333333326</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J242" t="n">
-        <v>4.580000000000006</v>
-      </c>
-      <c r="K242" t="n">
-        <v>-24.1379310344824</v>
-      </c>
-      <c r="L242" t="n">
-        <v>5.906000000000003</v>
-      </c>
-      <c r="M242" t="n">
-        <v>5.883000000000002</v>
-      </c>
-      <c r="N242" t="n">
-        <v>5.869666666666669</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="C243" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D243" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="E243" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F243" t="n">
-        <v>23371.1677</v>
-      </c>
-      <c r="G243" t="n">
-        <v>5.87316666666666</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J243" t="n">
-        <v>4.580000000000006</v>
-      </c>
-      <c r="K243" t="n">
-        <v>-28.57142857142848</v>
-      </c>
-      <c r="L243" t="n">
-        <v>5.899000000000003</v>
-      </c>
-      <c r="M243" t="n">
-        <v>5.884000000000002</v>
-      </c>
-      <c r="N243" t="n">
-        <v>5.870333333333336</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C244" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D244" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E244" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F244" t="n">
-        <v>100</v>
-      </c>
-      <c r="G244" t="n">
-        <v>5.873999999999993</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0.1099999999999994</v>
-      </c>
-      <c r="J244" t="n">
-        <v>4.650000000000006</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0</v>
-      </c>
-      <c r="L244" t="n">
-        <v>5.898000000000003</v>
-      </c>
-      <c r="M244" t="n">
-        <v>5.888500000000002</v>
-      </c>
-      <c r="N244" t="n">
-        <v>5.873333333333336</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="C245" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D245" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="E245" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F245" t="n">
-        <v>25572.9444</v>
-      </c>
-      <c r="G245" t="n">
-        <v>5.872833333333327</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J245" t="n">
-        <v>4.720000000000005</v>
-      </c>
-      <c r="K245" t="n">
-        <v>-5.555555555555445</v>
-      </c>
-      <c r="L245" t="n">
-        <v>5.891000000000004</v>
-      </c>
-      <c r="M245" t="n">
-        <v>5.889500000000002</v>
-      </c>
-      <c r="N245" t="n">
-        <v>5.874000000000003</v>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C246" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D246" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E246" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F246" t="n">
-        <v>8939.2845</v>
-      </c>
-      <c r="G246" t="n">
-        <v>5.87166666666666</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J246" t="n">
-        <v>4.730000000000005</v>
-      </c>
-      <c r="K246" t="n">
-        <v>-22.58064516129051</v>
-      </c>
-      <c r="L246" t="n">
-        <v>5.890000000000002</v>
-      </c>
-      <c r="M246" t="n">
-        <v>5.891000000000002</v>
-      </c>
-      <c r="N246" t="n">
-        <v>5.875000000000003</v>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C247" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D247" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E247" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F247" t="n">
-        <v>10</v>
-      </c>
-      <c r="G247" t="n">
-        <v>5.872499999999993</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0.1099999999999994</v>
-      </c>
-      <c r="J247" t="n">
-        <v>4.790000000000004</v>
-      </c>
-      <c r="K247" t="n">
-        <v>9.090909090908944</v>
-      </c>
-      <c r="L247" t="n">
-        <v>5.889000000000003</v>
-      </c>
-      <c r="M247" t="n">
-        <v>5.893500000000001</v>
-      </c>
-      <c r="N247" t="n">
-        <v>5.878000000000003</v>
-      </c>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="C248" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D248" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E248" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F248" t="n">
-        <v>432.597</v>
-      </c>
-      <c r="G248" t="n">
-        <v>5.872333333333327</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J248" t="n">
-        <v>4.860000000000004</v>
-      </c>
-      <c r="K248" t="n">
-        <v>-12.82051282051284</v>
-      </c>
-      <c r="L248" t="n">
-        <v>5.885000000000003</v>
-      </c>
-      <c r="M248" t="n">
-        <v>5.892500000000002</v>
-      </c>
-      <c r="N248" t="n">
-        <v>5.87866666666667</v>
-      </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C249" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D249" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E249" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F249" t="n">
-        <v>10</v>
-      </c>
-      <c r="G249" t="n">
-        <v>5.872333333333327</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0.1099999999999994</v>
-      </c>
-      <c r="J249" t="n">
-        <v>4.930000000000003</v>
-      </c>
-      <c r="K249" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L249" t="n">
-        <v>5.887000000000003</v>
-      </c>
-      <c r="M249" t="n">
-        <v>5.895000000000001</v>
-      </c>
-      <c r="N249" t="n">
-        <v>5.88166666666667</v>
-      </c>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
-      <c r="S249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C250" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D250" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E250" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F250" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="G250" t="n">
-        <v>5.871999999999995</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J250" t="n">
-        <v>5.000000000000003</v>
-      </c>
-      <c r="K250" t="n">
-        <v>-8.695652173913119</v>
-      </c>
-      <c r="L250" t="n">
-        <v>5.886000000000004</v>
-      </c>
-      <c r="M250" t="n">
-        <v>5.894000000000002</v>
-      </c>
-      <c r="N250" t="n">
-        <v>5.882333333333337</v>
-      </c>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
-      <c r="S250" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest FAB.xlsx
+++ b/BackTest/2019-10-24 BackTest FAB.xlsx
@@ -451,17 +451,13 @@
         <v>5.831666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.82</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>5.832666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -542,13 +530,9 @@
         <v>5.88</v>
       </c>
       <c r="K4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.88</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -585,11 +569,11 @@
         <v>5.88</v>
       </c>
       <c r="K5" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -619,20 +603,18 @@
         <v>5.836833333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -662,22 +644,14 @@
         <v>5.837666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -711,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -752,14 +720,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -793,14 +755,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -828,22 +784,14 @@
         <v>5.840000000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,14 +825,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -918,14 +860,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,14 +895,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1000,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1041,14 +965,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1082,14 +1000,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1123,14 +1035,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,14 +1070,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1205,14 +1105,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1246,14 +1140,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1287,14 +1175,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1328,14 +1210,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1363,22 +1239,14 @@
         <v>5.841999999999997</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1412,14 +1280,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1453,14 +1315,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1494,14 +1350,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1535,14 +1385,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1570,22 +1414,14 @@
         <v>5.836499999999996</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1613,22 +1449,14 @@
         <v>5.838999999999996</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1656,22 +1484,14 @@
         <v>5.840499999999995</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1705,14 +1525,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1746,14 +1560,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1787,14 +1595,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1828,14 +1630,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1869,14 +1665,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1910,14 +1700,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1951,14 +1735,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1992,14 +1770,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2033,14 +1805,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2074,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2115,14 +1875,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2156,14 +1910,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2191,22 +1939,14 @@
         <v>5.877666666666659</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K44" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2240,14 +1980,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2281,14 +2015,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2322,14 +2050,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2363,14 +2085,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2404,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2445,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2486,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2527,14 +2225,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2568,14 +2260,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2609,14 +2295,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2650,14 +2330,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2691,14 +2365,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2732,14 +2400,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2773,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2814,14 +2470,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2855,14 +2505,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2896,14 +2540,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2937,14 +2575,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2978,14 +2610,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3019,14 +2645,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3060,14 +2680,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3101,14 +2715,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3142,14 +2750,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3183,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3224,14 +2820,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3265,14 +2855,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3306,14 +2890,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3347,14 +2925,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3388,14 +2960,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3429,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3470,14 +3030,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3505,22 +3059,14 @@
         <v>5.869999999999987</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K76" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3094,14 @@
         <v>5.867666666666653</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K77" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3591,22 +3129,14 @@
         <v>5.865333333333321</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K78" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3640,14 +3170,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3681,14 +3205,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3722,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3757,22 +3269,14 @@
         <v>5.86633333333332</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K82" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3806,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3847,14 +3345,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3888,14 +3380,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3415,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3970,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4011,14 +3485,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4049,19 +3517,13 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>1.031082474226804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4160,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4195,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4230,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4265,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4300,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4335,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4370,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -6502,17 +5964,13 @@
         <v>5.917333333333338</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K159" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
@@ -6541,22 +5999,14 @@
         <v>5.916166666666672</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K160" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6584,22 +6034,14 @@
         <v>5.914333333333338</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K161" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6633,14 +6075,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6674,14 +6110,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6715,14 +6145,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6756,14 +6180,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6797,14 +6215,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6838,14 +6250,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6879,14 +6285,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6914,22 +6314,14 @@
         <v>5.892833333333338</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K169" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6957,22 +6349,14 @@
         <v>5.890000000000004</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K170" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7000,22 +6384,14 @@
         <v>5.887666666666671</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K171" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7043,22 +6419,14 @@
         <v>5.885333333333336</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K172" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7086,22 +6454,14 @@
         <v>5.882833333333337</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K173" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7129,22 +6489,14 @@
         <v>5.87966666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K174" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7172,22 +6524,14 @@
         <v>5.877000000000004</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K175" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7215,22 +6559,14 @@
         <v>5.874333333333338</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K176" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7267,13 +6603,9 @@
         <v>5.86</v>
       </c>
       <c r="K177" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.86</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7307,14 +6639,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="K178" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M178" t="n">
@@ -7344,18 +6676,20 @@
         <v>5.869666666666671</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K179" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -7391,16 +6725,12 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="K180" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.84</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7434,14 +6764,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="K181" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -7480,11 +6810,11 @@
         <v>5.87</v>
       </c>
       <c r="K182" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -7523,13 +6853,9 @@
         <v>5.87</v>
       </c>
       <c r="K183" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.87</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7564,11 +6890,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -7605,11 +6931,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -7645,14 +6971,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7686,14 +7006,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7727,14 +7041,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7768,14 +7076,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7809,14 +7111,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7850,14 +7146,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7891,14 +7181,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7932,14 +7216,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7973,14 +7251,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8014,14 +7286,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8055,14 +7321,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8096,14 +7356,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8137,14 +7391,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8178,14 +7426,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8219,14 +7461,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8260,14 +7496,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8301,14 +7531,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8342,14 +7566,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8383,14 +7601,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8424,14 +7636,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8465,14 +7671,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8506,14 +7706,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8547,14 +7741,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8588,14 +7776,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8629,14 +7811,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8670,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8711,14 +7881,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8752,14 +7916,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8787,22 +7945,14 @@
         <v>5.860999999999994</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K214" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8830,22 +7980,14 @@
         <v>5.86116666666666</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K215" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8873,22 +8015,14 @@
         <v>5.861333333333326</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K216" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8916,22 +8050,14 @@
         <v>5.861499999999993</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K217" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8959,22 +8085,14 @@
         <v>5.86166666666666</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K218" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9002,22 +8120,14 @@
         <v>5.861833333333326</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K219" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9045,22 +8155,14 @@
         <v>5.860666666666659</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K220" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9088,22 +8190,14 @@
         <v>5.860666666666659</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K221" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9131,22 +8225,14 @@
         <v>5.860166666666658</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K222" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9180,14 +8266,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9215,22 +8295,14 @@
         <v>5.859833333333325</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K224" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9258,22 +8330,14 @@
         <v>5.859999999999991</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K225" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9301,22 +8365,14 @@
         <v>5.859999999999991</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K226" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9344,22 +8400,14 @@
         <v>5.860833333333324</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K227" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9396,13 +8444,9 @@
         <v>5.88</v>
       </c>
       <c r="K228" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.88</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9437,11 +8481,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M229" t="n">

--- a/BackTest/2019-10-24 BackTest FAB.xlsx
+++ b/BackTest/2019-10-24 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:M230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="C2" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="D2" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="E2" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -471,28 +471,32 @@
         <v>5.82</v>
       </c>
       <c r="C3" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="D3" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="E3" t="n">
         <v>5.82</v>
       </c>
       <c r="F3" t="n">
-        <v>8792.222400000001</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>5.832666666666666</v>
+        <v>5.831666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.74</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -503,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="C4" t="n">
         <v>5.88</v>
@@ -512,13 +516,13 @@
         <v>5.88</v>
       </c>
       <c r="E4" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>8792.222400000001</v>
       </c>
       <c r="G4" t="n">
-        <v>5.833666666666667</v>
+        <v>5.832666666666666</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -527,12 +531,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="K4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>5.74</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -557,19 +565,17 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>5.835833333333333</v>
+        <v>5.833666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>5.88</v>
+        <v>5.74</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -600,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>5.836833333333333</v>
+        <v>5.835833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -609,14 +615,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>5.837666666666666</v>
+        <v>5.836833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="C8" t="n">
         <v>5.88</v>
@@ -670,13 +670,13 @@
         <v>5.88</v>
       </c>
       <c r="E8" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="F8" t="n">
-        <v>40379.7562</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>5.837833333333333</v>
+        <v>5.837666666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -696,22 +696,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="C9" t="n">
-        <v>5.85</v>
+        <v>5.88</v>
       </c>
       <c r="D9" t="n">
-        <v>5.85</v>
+        <v>5.88</v>
       </c>
       <c r="E9" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>40379.7562</v>
       </c>
       <c r="G9" t="n">
-        <v>5.837333333333333</v>
+        <v>5.837833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="C10" t="n">
-        <v>5.97</v>
+        <v>5.85</v>
       </c>
       <c r="D10" t="n">
-        <v>5.97</v>
+        <v>5.85</v>
       </c>
       <c r="E10" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="F10" t="n">
-        <v>49885.4586</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>5.838833333333334</v>
+        <v>5.837333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="C11" t="n">
         <v>5.97</v>
@@ -775,13 +775,13 @@
         <v>5.97</v>
       </c>
       <c r="E11" t="n">
-        <v>5.92</v>
+        <v>5.89</v>
       </c>
       <c r="F11" t="n">
-        <v>36407.3342</v>
+        <v>49885.4586</v>
       </c>
       <c r="G11" t="n">
-        <v>5.840000000000002</v>
+        <v>5.838833333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -810,13 +810,13 @@
         <v>5.97</v>
       </c>
       <c r="E12" t="n">
-        <v>5.97</v>
+        <v>5.92</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>36407.3342</v>
       </c>
       <c r="G12" t="n">
-        <v>5.841333333333336</v>
+        <v>5.840000000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -836,22 +836,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C13" t="n">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="D13" t="n">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="E13" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="F13" t="n">
-        <v>226576.3245</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>5.843666666666668</v>
+        <v>5.841333333333336</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.03</v>
+        <v>5.96</v>
       </c>
       <c r="C14" t="n">
         <v>6.03</v>
@@ -880,13 +880,13 @@
         <v>6.03</v>
       </c>
       <c r="E14" t="n">
-        <v>6.03</v>
+        <v>5.96</v>
       </c>
       <c r="F14" t="n">
-        <v>28298.5074</v>
+        <v>226576.3245</v>
       </c>
       <c r="G14" t="n">
-        <v>5.845833333333335</v>
+        <v>5.843666666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="C15" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="D15" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="E15" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="F15" t="n">
-        <v>51004</v>
+        <v>28298.5074</v>
       </c>
       <c r="G15" t="n">
-        <v>5.846833333333335</v>
+        <v>5.845833333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="C16" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="D16" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="E16" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>51004</v>
       </c>
       <c r="G16" t="n">
-        <v>5.848666666666668</v>
+        <v>5.846833333333335</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>6.02</v>
       </c>
       <c r="F17" t="n">
-        <v>877.9784</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>5.8505</v>
+        <v>5.848666666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>6.02</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>877.9784</v>
       </c>
       <c r="G18" t="n">
-        <v>5.852333333333333</v>
+        <v>5.8505</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1049,25 +1049,25 @@
         <v>6.02</v>
       </c>
       <c r="C19" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="D19" t="n">
         <v>6.02</v>
       </c>
       <c r="E19" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="F19" t="n">
-        <v>18583.4734</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>5.852833333333333</v>
+        <v>5.852333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1081,28 +1081,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.91</v>
+        <v>6.02</v>
       </c>
       <c r="C20" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="D20" t="n">
-        <v>5.91</v>
+        <v>6.02</v>
       </c>
       <c r="E20" t="n">
-        <v>5.7</v>
+        <v>5.94</v>
       </c>
       <c r="F20" t="n">
-        <v>410533.6873</v>
+        <v>18583.4734</v>
       </c>
       <c r="G20" t="n">
-        <v>5.852499999999998</v>
+        <v>5.852833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1116,28 +1116,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.81</v>
+        <v>5.91</v>
       </c>
       <c r="C21" t="n">
-        <v>5.78</v>
+        <v>5.9</v>
       </c>
       <c r="D21" t="n">
-        <v>5.81</v>
+        <v>5.91</v>
       </c>
       <c r="E21" t="n">
-        <v>5.78</v>
+        <v>5.7</v>
       </c>
       <c r="F21" t="n">
-        <v>62958.0688</v>
+        <v>410533.6873</v>
       </c>
       <c r="G21" t="n">
-        <v>5.849166666666664</v>
+        <v>5.852499999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1151,22 +1151,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.74</v>
+        <v>5.81</v>
       </c>
       <c r="C22" t="n">
-        <v>5.74</v>
+        <v>5.78</v>
       </c>
       <c r="D22" t="n">
-        <v>5.74</v>
+        <v>5.81</v>
       </c>
       <c r="E22" t="n">
-        <v>5.74</v>
+        <v>5.78</v>
       </c>
       <c r="F22" t="n">
-        <v>31618.2816</v>
+        <v>62958.0688</v>
       </c>
       <c r="G22" t="n">
-        <v>5.845166666666665</v>
+        <v>5.849166666666664</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.84</v>
+        <v>5.74</v>
       </c>
       <c r="C23" t="n">
-        <v>5.84</v>
+        <v>5.74</v>
       </c>
       <c r="D23" t="n">
-        <v>5.84</v>
+        <v>5.74</v>
       </c>
       <c r="E23" t="n">
-        <v>5.84</v>
+        <v>5.74</v>
       </c>
       <c r="F23" t="n">
-        <v>16271.7478</v>
+        <v>31618.2816</v>
       </c>
       <c r="G23" t="n">
-        <v>5.843666666666664</v>
+        <v>5.845166666666665</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1224,19 +1224,19 @@
         <v>5.84</v>
       </c>
       <c r="C24" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D24" t="n">
         <v>5.84</v>
       </c>
       <c r="E24" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F24" t="n">
-        <v>72325</v>
+        <v>16271.7478</v>
       </c>
       <c r="G24" t="n">
-        <v>5.841999999999997</v>
+        <v>5.843666666666664</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1256,22 +1256,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="C25" t="n">
-        <v>5.89</v>
+        <v>5.83</v>
       </c>
       <c r="D25" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="E25" t="n">
-        <v>5.89</v>
+        <v>5.83</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>72325</v>
       </c>
       <c r="G25" t="n">
-        <v>5.841333333333329</v>
+        <v>5.841999999999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="C26" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="D26" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="E26" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="F26" t="n">
-        <v>78.2051</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>5.838999999999996</v>
+        <v>5.841333333333329</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,22 +1326,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="C27" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="D27" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="E27" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="F27" t="n">
-        <v>29618.2816</v>
+        <v>78.2051</v>
       </c>
       <c r="G27" t="n">
-        <v>5.837666666666663</v>
+        <v>5.838999999999996</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="C28" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="D28" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="E28" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="F28" t="n">
-        <v>13281.653</v>
+        <v>29618.2816</v>
       </c>
       <c r="G28" t="n">
-        <v>5.836499999999996</v>
+        <v>5.837666666666663</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>5.8</v>
       </c>
       <c r="F29" t="n">
-        <v>8172.7111</v>
+        <v>13281.653</v>
       </c>
       <c r="G29" t="n">
         <v>5.836499999999996</v>
@@ -1431,22 +1431,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="D30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="E30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>8172.7111</v>
       </c>
       <c r="G30" t="n">
-        <v>5.838999999999996</v>
+        <v>5.836499999999996</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1478,10 +1478,10 @@
         <v>5.9</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>5.840499999999995</v>
+        <v>5.838999999999996</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1513,10 +1513,10 @@
         <v>5.9</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>5.841166666666662</v>
+        <v>5.840499999999995</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>5.9</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>5.841666666666661</v>
+        <v>5.841166666666662</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1583,10 +1583,10 @@
         <v>5.9</v>
       </c>
       <c r="F34" t="n">
-        <v>201.8644</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>5.844833333333328</v>
+        <v>5.841666666666661</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>5.9</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>201.8644</v>
       </c>
       <c r="G35" t="n">
-        <v>5.849499999999994</v>
+        <v>5.844833333333328</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>5.851833333333327</v>
+        <v>5.849499999999994</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1676,22 +1676,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="C37" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="D37" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="E37" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7587</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>5.85516666666666</v>
+        <v>5.851833333333327</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1711,22 +1711,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="C38" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="D38" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="E38" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>208.7587</v>
       </c>
       <c r="G38" t="n">
-        <v>5.858333333333326</v>
+        <v>5.85516666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1746,22 +1746,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="C39" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="D39" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="E39" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="F39" t="n">
-        <v>510.2040816326531</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>5.86066666666666</v>
+        <v>5.858333333333326</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="C40" t="n">
         <v>5.88</v>
@@ -1790,13 +1790,13 @@
         <v>5.88</v>
       </c>
       <c r="E40" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="F40" t="n">
-        <v>67663.10890000001</v>
+        <v>510.2040816326531</v>
       </c>
       <c r="G40" t="n">
-        <v>5.864999999999993</v>
+        <v>5.86066666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>5.84</v>
       </c>
       <c r="C41" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="D41" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="E41" t="n">
         <v>5.84</v>
       </c>
       <c r="F41" t="n">
-        <v>64689.6086</v>
+        <v>67663.10890000001</v>
       </c>
       <c r="G41" t="n">
-        <v>5.868666666666659</v>
+        <v>5.864999999999993</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="C42" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="D42" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="E42" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="F42" t="n">
-        <v>85534</v>
+        <v>64689.6086</v>
       </c>
       <c r="G42" t="n">
-        <v>5.87066666666666</v>
+        <v>5.868666666666659</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.85</v>
+        <v>5.81</v>
       </c>
       <c r="C43" t="n">
-        <v>5.86</v>
+        <v>5.81</v>
       </c>
       <c r="D43" t="n">
-        <v>5.86</v>
+        <v>5.81</v>
       </c>
       <c r="E43" t="n">
-        <v>5.85</v>
+        <v>5.81</v>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>85534</v>
       </c>
       <c r="G43" t="n">
-        <v>5.873499999999993</v>
+        <v>5.87066666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="C44" t="n">
         <v>5.86</v>
@@ -1930,13 +1930,13 @@
         <v>5.86</v>
       </c>
       <c r="E44" t="n">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>5.877666666666659</v>
+        <v>5.873499999999993</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1959,19 +1959,19 @@
         <v>5.86</v>
       </c>
       <c r="C45" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="D45" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="E45" t="n">
         <v>5.86</v>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>5.880833333333326</v>
+        <v>5.877666666666659</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="C46" t="n">
         <v>5.88</v>
@@ -2000,13 +2000,13 @@
         <v>5.88</v>
       </c>
       <c r="E46" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="F46" t="n">
-        <v>57397.9591</v>
+        <v>20</v>
       </c>
       <c r="G46" t="n">
-        <v>5.884333333333326</v>
+        <v>5.880833333333326</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2038,10 +2038,10 @@
         <v>5.88</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>57397.9591</v>
       </c>
       <c r="G47" t="n">
-        <v>5.881666666666659</v>
+        <v>5.884333333333326</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         <v>5.88</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>5.880333333333326</v>
+        <v>5.881666666666659</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>5.88</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>5.878999999999992</v>
+        <v>5.880333333333326</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>5.877999999999992</v>
+        <v>5.878999999999992</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>5.878499999999992</v>
+        <v>5.877999999999992</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>5.879499999999992</v>
+        <v>5.878499999999992</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="C53" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="D53" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="E53" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="F53" t="n">
-        <v>3500</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>5.878499999999992</v>
+        <v>5.879499999999992</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2271,22 +2271,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="C54" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="D54" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="E54" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="F54" t="n">
-        <v>213594.9985</v>
+        <v>3500</v>
       </c>
       <c r="G54" t="n">
-        <v>5.878666666666659</v>
+        <v>5.878499999999992</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="C55" t="n">
         <v>5.9</v>
@@ -2315,13 +2315,13 @@
         <v>5.9</v>
       </c>
       <c r="E55" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>213594.9985</v>
       </c>
       <c r="G55" t="n">
-        <v>5.880166666666658</v>
+        <v>5.878666666666659</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>5.881499999999991</v>
+        <v>5.880166666666658</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>5.9</v>
       </c>
       <c r="F57" t="n">
-        <v>66184.2372</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>5.882833333333324</v>
+        <v>5.881499999999991</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2414,19 +2414,19 @@
         <v>5.9</v>
       </c>
       <c r="C58" t="n">
-        <v>5.87</v>
+        <v>5.9</v>
       </c>
       <c r="D58" t="n">
         <v>5.9</v>
       </c>
       <c r="E58" t="n">
-        <v>5.87</v>
+        <v>5.9</v>
       </c>
       <c r="F58" t="n">
-        <v>33660.7626</v>
+        <v>66184.2372</v>
       </c>
       <c r="G58" t="n">
-        <v>5.883666666666658</v>
+        <v>5.882833333333324</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2446,22 +2446,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="C59" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="D59" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="E59" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="F59" t="n">
-        <v>26353</v>
+        <v>33660.7626</v>
       </c>
       <c r="G59" t="n">
-        <v>5.883999999999991</v>
+        <v>5.883666666666658</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C60" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D60" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E60" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>26353</v>
       </c>
       <c r="G60" t="n">
-        <v>5.884166666666657</v>
+        <v>5.883999999999991</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2516,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C61" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="D61" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="E61" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F61" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>5.885833333333323</v>
+        <v>5.884166666666657</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2551,22 +2551,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="C62" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="D62" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="E62" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>5.887166666666657</v>
+        <v>5.885833333333323</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2601,7 +2601,7 @@
         <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>5.88749999999999</v>
+        <v>5.887166666666657</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2621,22 +2621,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="C64" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="D64" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="E64" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="F64" t="n">
-        <v>43847</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>5.886833333333323</v>
+        <v>5.88749999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2656,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="C65" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="D65" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="E65" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="F65" t="n">
-        <v>42355.352</v>
+        <v>43847</v>
       </c>
       <c r="G65" t="n">
-        <v>5.886999999999989</v>
+        <v>5.886833333333323</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2691,10 +2691,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C66" t="n">
         <v>5.89</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5.88</v>
       </c>
       <c r="D66" t="n">
         <v>5.89</v>
@@ -2703,7 +2703,7 @@
         <v>5.88</v>
       </c>
       <c r="F66" t="n">
-        <v>116140.6859</v>
+        <v>42355.352</v>
       </c>
       <c r="G66" t="n">
         <v>5.886999999999989</v>
@@ -2726,19 +2726,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="C67" t="n">
         <v>5.88</v>
       </c>
       <c r="D67" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="E67" t="n">
         <v>5.88</v>
       </c>
       <c r="F67" t="n">
-        <v>20</v>
+        <v>116140.6859</v>
       </c>
       <c r="G67" t="n">
         <v>5.886999999999989</v>
@@ -2773,7 +2773,7 @@
         <v>5.88</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G68" t="n">
         <v>5.886999999999989</v>
@@ -2796,7 +2796,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="C69" t="n">
         <v>5.88</v>
@@ -2805,13 +2805,13 @@
         <v>5.88</v>
       </c>
       <c r="E69" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="F69" t="n">
-        <v>22344.0935</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>5.887499999999989</v>
+        <v>5.886999999999989</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="C70" t="n">
         <v>5.88</v>
@@ -2840,13 +2840,13 @@
         <v>5.88</v>
       </c>
       <c r="E70" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>22344.0935</v>
       </c>
       <c r="G70" t="n">
-        <v>5.885999999999988</v>
+        <v>5.887499999999989</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>5.884499999999988</v>
+        <v>5.885999999999988</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2901,22 +2901,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="C72" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="D72" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="E72" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="F72" t="n">
-        <v>21851.4378</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>5.882166666666653</v>
+        <v>5.884499999999988</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2948,10 +2948,10 @@
         <v>5.83</v>
       </c>
       <c r="F73" t="n">
-        <v>43088.1835</v>
+        <v>21851.4378</v>
       </c>
       <c r="G73" t="n">
-        <v>5.87883333333332</v>
+        <v>5.882166666666653</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2983,10 +2983,10 @@
         <v>5.83</v>
       </c>
       <c r="F74" t="n">
-        <v>73941</v>
+        <v>43088.1835</v>
       </c>
       <c r="G74" t="n">
-        <v>5.875499999999987</v>
+        <v>5.87883333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>5.83</v>
       </c>
       <c r="F75" t="n">
-        <v>48835</v>
+        <v>73941</v>
       </c>
       <c r="G75" t="n">
-        <v>5.873166666666653</v>
+        <v>5.875499999999987</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3053,10 +3053,10 @@
         <v>5.83</v>
       </c>
       <c r="F76" t="n">
-        <v>17679.3602</v>
+        <v>48835</v>
       </c>
       <c r="G76" t="n">
-        <v>5.869999999999987</v>
+        <v>5.873166666666653</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="C77" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="D77" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="E77" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>17679.3602</v>
       </c>
       <c r="G77" t="n">
-        <v>5.867666666666653</v>
+        <v>5.869999999999987</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>5.88</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G78" t="n">
-        <v>5.865333333333321</v>
+        <v>5.867666666666653</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3146,22 +3146,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="C79" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="D79" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="E79" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="F79" t="n">
-        <v>55130.7552</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>5.863499999999987</v>
+        <v>5.865333333333321</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>5.83</v>
       </c>
       <c r="F80" t="n">
-        <v>5760.1429</v>
+        <v>55130.7552</v>
       </c>
       <c r="G80" t="n">
-        <v>5.862333333333321</v>
+        <v>5.863499999999987</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3216,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="C81" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="D81" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="E81" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>5760.1429</v>
       </c>
       <c r="G81" t="n">
-        <v>5.863999999999987</v>
+        <v>5.862333333333321</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         <v>5.88</v>
       </c>
       <c r="F82" t="n">
-        <v>21142.6113</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>5.86633333333332</v>
+        <v>5.863999999999987</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3286,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C83" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="D83" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="E83" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="F83" t="n">
-        <v>44940.47</v>
+        <v>21142.6113</v>
       </c>
       <c r="G83" t="n">
-        <v>5.86733333333332</v>
+        <v>5.86633333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="C84" t="n">
         <v>5.9</v>
@@ -3330,13 +3330,13 @@
         <v>5.9</v>
       </c>
       <c r="E84" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>44940.47</v>
       </c>
       <c r="G84" t="n">
-        <v>5.868499999999987</v>
+        <v>5.86733333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3368,10 +3368,10 @@
         <v>5.9</v>
       </c>
       <c r="F85" t="n">
-        <v>129531.0169</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>5.868666666666654</v>
+        <v>5.868499999999987</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3394,19 +3394,19 @@
         <v>5.9</v>
       </c>
       <c r="C86" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="D86" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="E86" t="n">
         <v>5.9</v>
       </c>
       <c r="F86" t="n">
-        <v>22574.0443</v>
+        <v>129531.0169</v>
       </c>
       <c r="G86" t="n">
-        <v>5.870833333333321</v>
+        <v>5.868666666666654</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C87" t="n">
         <v>5.97</v>
       </c>
-      <c r="C87" t="n">
-        <v>6.02</v>
-      </c>
       <c r="D87" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="E87" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="F87" t="n">
-        <v>147107.1111</v>
+        <v>22574.0443</v>
       </c>
       <c r="G87" t="n">
-        <v>5.874333333333321</v>
+        <v>5.870833333333321</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3461,22 +3461,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="C88" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="D88" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="E88" t="n">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="F88" t="n">
-        <v>108524.763</v>
+        <v>147107.1111</v>
       </c>
       <c r="G88" t="n">
-        <v>5.878333333333321</v>
+        <v>5.874333333333321</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3496,10 +3496,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C89" t="n">
         <v>6.04</v>
-      </c>
-      <c r="C89" t="n">
-        <v>6.03</v>
       </c>
       <c r="D89" t="n">
         <v>6.04</v>
@@ -3508,10 +3508,10 @@
         <v>6.03</v>
       </c>
       <c r="F89" t="n">
-        <v>134758.6781</v>
+        <v>108524.763</v>
       </c>
       <c r="G89" t="n">
-        <v>5.882166666666653</v>
+        <v>5.878333333333321</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3531,28 +3531,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="C90" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="D90" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="E90" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="F90" t="n">
-        <v>15780.7308</v>
+        <v>134758.6781</v>
       </c>
       <c r="G90" t="n">
-        <v>5.884166666666654</v>
+        <v>5.882166666666653</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3566,28 +3566,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="C91" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="D91" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="E91" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>15780.7308</v>
       </c>
       <c r="G91" t="n">
-        <v>5.886499999999987</v>
+        <v>5.884166666666654</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3616,13 +3616,13 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>5.888833333333322</v>
+        <v>5.886499999999987</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3648,16 +3648,16 @@
         <v>6.04</v>
       </c>
       <c r="F93" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>5.891166666666655</v>
+        <v>5.888833333333322</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3683,10 +3683,10 @@
         <v>6.04</v>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G94" t="n">
-        <v>5.89349999999999</v>
+        <v>5.891166666666655</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3718,10 +3718,10 @@
         <v>6.04</v>
       </c>
       <c r="F95" t="n">
-        <v>7864.2384</v>
+        <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>5.895833333333324</v>
+        <v>5.89349999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3741,22 +3741,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="C96" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="D96" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E96" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="F96" t="n">
-        <v>1969.32</v>
+        <v>7864.2384</v>
       </c>
       <c r="G96" t="n">
-        <v>5.897999999999991</v>
+        <v>5.895833333333324</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3776,28 +3776,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="C97" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="D97" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="E97" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="F97" t="n">
-        <v>121</v>
+        <v>1969.32</v>
       </c>
       <c r="G97" t="n">
-        <v>5.900999999999991</v>
+        <v>5.897999999999991</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3814,25 +3814,25 @@
         <v>5.98</v>
       </c>
       <c r="C98" t="n">
-        <v>5.98</v>
+        <v>6.02</v>
       </c>
       <c r="D98" t="n">
-        <v>5.98</v>
+        <v>6.02</v>
       </c>
       <c r="E98" t="n">
         <v>5.98</v>
       </c>
       <c r="F98" t="n">
-        <v>1666.6851</v>
+        <v>121</v>
       </c>
       <c r="G98" t="n">
-        <v>5.902333333333325</v>
+        <v>5.900999999999991</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="C99" t="n">
         <v>5.98</v>
@@ -3855,13 +3855,13 @@
         <v>5.98</v>
       </c>
       <c r="E99" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="F99" t="n">
-        <v>1489.3394</v>
+        <v>1666.6851</v>
       </c>
       <c r="G99" t="n">
-        <v>5.903999999999992</v>
+        <v>5.902333333333325</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="C100" t="n">
         <v>5.98</v>
@@ -3890,13 +3890,13 @@
         <v>5.98</v>
       </c>
       <c r="E100" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>1489.3394</v>
       </c>
       <c r="G100" t="n">
-        <v>5.905666666666659</v>
+        <v>5.903999999999992</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>100</v>
       </c>
       <c r="G101" t="n">
-        <v>5.907999999999992</v>
+        <v>5.905666666666659</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>5.98</v>
       </c>
       <c r="F102" t="n">
-        <v>33408.6898</v>
+        <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>5.910833333333327</v>
+        <v>5.907999999999992</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3986,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="C103" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="D103" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="E103" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="F103" t="n">
-        <v>110</v>
+        <v>33408.6898</v>
       </c>
       <c r="G103" t="n">
-        <v>5.913499999999993</v>
+        <v>5.910833333333327</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>6.02</v>
       </c>
       <c r="F104" t="n">
-        <v>4095.681</v>
+        <v>110</v>
       </c>
       <c r="G104" t="n">
-        <v>5.916166666666658</v>
+        <v>5.913499999999993</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>6.02</v>
       </c>
       <c r="F105" t="n">
-        <v>3857.0301</v>
+        <v>4095.681</v>
       </c>
       <c r="G105" t="n">
-        <v>5.918499999999992</v>
+        <v>5.916166666666658</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4091,22 +4091,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="C106" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="D106" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="E106" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>3857.0301</v>
       </c>
       <c r="G106" t="n">
-        <v>5.920999999999991</v>
+        <v>5.918499999999992</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="C107" t="n">
         <v>6.03</v>
@@ -4135,13 +4135,13 @@
         <v>6.03</v>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="F107" t="n">
-        <v>94747.08289999999</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>5.923499999999991</v>
+        <v>5.920999999999991</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4161,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.95</v>
+        <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>5.92</v>
+        <v>6.03</v>
       </c>
       <c r="D108" t="n">
-        <v>5.95</v>
+        <v>6.03</v>
       </c>
       <c r="E108" t="n">
-        <v>5.92</v>
+        <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>114362.8183</v>
+        <v>94747.08289999999</v>
       </c>
       <c r="G108" t="n">
-        <v>5.924166666666658</v>
+        <v>5.923499999999991</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4196,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.91</v>
+        <v>5.95</v>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="E109" t="n">
-        <v>5.85</v>
+        <v>5.92</v>
       </c>
       <c r="F109" t="n">
-        <v>14854.396</v>
+        <v>114362.8183</v>
       </c>
       <c r="G109" t="n">
-        <v>5.926166666666658</v>
+        <v>5.924166666666658</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6</v>
+        <v>5.91</v>
       </c>
       <c r="C110" t="n">
         <v>6</v>
@@ -4240,13 +4240,13 @@
         <v>6</v>
       </c>
       <c r="E110" t="n">
-        <v>6</v>
+        <v>5.85</v>
       </c>
       <c r="F110" t="n">
-        <v>400</v>
+        <v>14854.396</v>
       </c>
       <c r="G110" t="n">
-        <v>5.928166666666658</v>
+        <v>5.926166666666658</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4266,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="C111" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E111" t="n">
-        <v>5.96</v>
+        <v>6</v>
       </c>
       <c r="F111" t="n">
-        <v>85416.2458</v>
+        <v>400</v>
       </c>
       <c r="G111" t="n">
-        <v>5.929666666666659</v>
+        <v>5.928166666666658</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4301,22 +4301,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="C112" t="n">
         <v>5.97</v>
       </c>
       <c r="D112" t="n">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="E112" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="F112" t="n">
-        <v>69411</v>
+        <v>85416.2458</v>
       </c>
       <c r="G112" t="n">
-        <v>5.931166666666659</v>
+        <v>5.929666666666659</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4336,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C113" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="D113" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="E113" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="F113" t="n">
-        <v>7303.3026</v>
+        <v>69411</v>
       </c>
       <c r="G113" t="n">
-        <v>5.933999999999993</v>
+        <v>5.931166666666659</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4371,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
       <c r="C114" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="D114" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="E114" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>7303.3026</v>
       </c>
       <c r="G114" t="n">
-        <v>5.935999999999993</v>
+        <v>5.933999999999993</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4421,7 +4421,7 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>5.937999999999993</v>
+        <v>5.935999999999993</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>5.939999999999993</v>
+        <v>5.937999999999993</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4476,22 +4476,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.95</v>
+        <v>6.02</v>
       </c>
       <c r="C117" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="D117" t="n">
-        <v>5.95</v>
+        <v>6.02</v>
       </c>
       <c r="E117" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="F117" t="n">
-        <v>190080.7979</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>5.94066666666666</v>
+        <v>5.939999999999993</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4511,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.88</v>
+        <v>5.95</v>
       </c>
       <c r="C118" t="n">
         <v>5.94</v>
       </c>
       <c r="D118" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E118" t="n">
         <v>5.94</v>
       </c>
-      <c r="E118" t="n">
-        <v>5.88</v>
-      </c>
       <c r="F118" t="n">
-        <v>41.9625</v>
+        <v>190080.7979</v>
       </c>
       <c r="G118" t="n">
-        <v>5.941833333333326</v>
+        <v>5.94066666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="C119" t="n">
         <v>5.94</v>
@@ -4555,13 +4555,13 @@
         <v>5.94</v>
       </c>
       <c r="E119" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>41.9625</v>
       </c>
       <c r="G119" t="n">
-        <v>5.943499999999994</v>
+        <v>5.941833333333326</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4596,7 +4596,7 @@
         <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>5.945333333333327</v>
+        <v>5.943499999999994</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4628,10 +4628,10 @@
         <v>5.94</v>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>5.946999999999994</v>
+        <v>5.945333333333327</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4654,19 +4654,19 @@
         <v>5.94</v>
       </c>
       <c r="C122" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="D122" t="n">
         <v>5.94</v>
       </c>
       <c r="E122" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="F122" t="n">
-        <v>111323.6199</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>5.946166666666661</v>
+        <v>5.946999999999994</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4686,22 +4686,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.86</v>
+        <v>5.94</v>
       </c>
       <c r="C123" t="n">
         <v>5.85</v>
       </c>
       <c r="D123" t="n">
-        <v>5.86</v>
+        <v>5.94</v>
       </c>
       <c r="E123" t="n">
         <v>5.85</v>
       </c>
       <c r="F123" t="n">
-        <v>95645.3253</v>
+        <v>111323.6199</v>
       </c>
       <c r="G123" t="n">
-        <v>5.945333333333329</v>
+        <v>5.946166666666661</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4721,22 +4721,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="C124" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="D124" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="E124" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="F124" t="n">
-        <v>18</v>
+        <v>95645.3253</v>
       </c>
       <c r="G124" t="n">
-        <v>5.94683333333333</v>
+        <v>5.945333333333329</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4756,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C125" t="n">
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
       <c r="D125" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="E125" t="n">
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
       <c r="F125" t="n">
-        <v>58818.791</v>
+        <v>18</v>
       </c>
       <c r="G125" t="n">
-        <v>5.945999999999996</v>
+        <v>5.94683333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4791,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="C126" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D126" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="E126" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F126" t="n">
-        <v>133595.061</v>
+        <v>58818.791</v>
       </c>
       <c r="G126" t="n">
-        <v>5.945166666666663</v>
+        <v>5.945999999999996</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4826,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="C127" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="D127" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="E127" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>133595.061</v>
       </c>
       <c r="G127" t="n">
-        <v>5.945666666666663</v>
+        <v>5.945166666666663</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4864,19 +4864,19 @@
         <v>5.91</v>
       </c>
       <c r="C128" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D128" t="n">
         <v>5.91</v>
       </c>
       <c r="E128" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="F128" t="n">
-        <v>36628.168</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>5.945166666666664</v>
+        <v>5.945666666666663</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4899,19 +4899,19 @@
         <v>5.91</v>
       </c>
       <c r="C129" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D129" t="n">
         <v>5.91</v>
       </c>
       <c r="E129" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>36628.168</v>
       </c>
       <c r="G129" t="n">
-        <v>5.945666666666664</v>
+        <v>5.945166666666664</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>5.946166666666665</v>
+        <v>5.945666666666664</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>5.946666666666665</v>
+        <v>5.946166666666665</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>5.947999999999999</v>
+        <v>5.946666666666665</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>5.949333333333333</v>
+        <v>5.947999999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5086,7 +5086,7 @@
         <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>5.950666666666667</v>
+        <v>5.949333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5121,7 +5121,7 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>5.952000000000001</v>
+        <v>5.950666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>5.953333333333335</v>
+        <v>5.952000000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5188,10 +5188,10 @@
         <v>5.91</v>
       </c>
       <c r="F137" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>5.953833333333336</v>
+        <v>5.953333333333335</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5223,10 +5223,10 @@
         <v>5.91</v>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>5.954333333333336</v>
+        <v>5.953833333333336</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5258,10 +5258,10 @@
         <v>5.91</v>
       </c>
       <c r="F139" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>5.95566666666667</v>
+        <v>5.954333333333336</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5281,22 +5281,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="C140" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D140" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="E140" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="F140" t="n">
-        <v>20652.1657</v>
+        <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>5.956000000000004</v>
+        <v>5.95566666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5316,22 +5316,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="C141" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D141" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="E141" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>20652.1657</v>
       </c>
       <c r="G141" t="n">
-        <v>5.956500000000005</v>
+        <v>5.956000000000004</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5363,10 +5363,10 @@
         <v>5.91</v>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G142" t="n">
-        <v>5.957000000000005</v>
+        <v>5.956500000000005</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5398,10 +5398,10 @@
         <v>5.91</v>
       </c>
       <c r="F143" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>5.957166666666672</v>
+        <v>5.957000000000005</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5436,7 +5436,7 @@
         <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>5.95733333333334</v>
+        <v>5.957166666666672</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5468,10 +5468,10 @@
         <v>5.91</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>5.957500000000008</v>
+        <v>5.95733333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5506,7 +5506,7 @@
         <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>5.956500000000007</v>
+        <v>5.957500000000008</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>5.954666666666674</v>
+        <v>5.956500000000007</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5561,22 +5561,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="C148" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D148" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="E148" t="n">
-        <v>5.84</v>
+        <v>5.91</v>
       </c>
       <c r="F148" t="n">
-        <v>66768.4679</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>5.951500000000008</v>
+        <v>5.954666666666674</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5596,22 +5596,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="C149" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D149" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="E149" t="n">
-        <v>5.91</v>
+        <v>5.84</v>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>66768.4679</v>
       </c>
       <c r="G149" t="n">
-        <v>5.949500000000009</v>
+        <v>5.951500000000008</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5631,22 +5631,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="C150" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="D150" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="E150" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="F150" t="n">
-        <v>32652.5768</v>
+        <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>5.946333333333342</v>
+        <v>5.949500000000009</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5678,10 +5678,10 @@
         <v>5.83</v>
       </c>
       <c r="F151" t="n">
-        <v>102169</v>
+        <v>32652.5768</v>
       </c>
       <c r="G151" t="n">
-        <v>5.942833333333342</v>
+        <v>5.946333333333342</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>5.83</v>
       </c>
       <c r="F152" t="n">
-        <v>70401</v>
+        <v>102169</v>
       </c>
       <c r="G152" t="n">
-        <v>5.939333333333341</v>
+        <v>5.942833333333342</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>5.83</v>
       </c>
       <c r="F153" t="n">
-        <v>47573</v>
+        <v>70401</v>
       </c>
       <c r="G153" t="n">
-        <v>5.93583333333334</v>
+        <v>5.939333333333341</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5783,10 +5783,10 @@
         <v>5.83</v>
       </c>
       <c r="F154" t="n">
-        <v>43460</v>
+        <v>47573</v>
       </c>
       <c r="G154" t="n">
-        <v>5.93233333333334</v>
+        <v>5.93583333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5818,10 +5818,10 @@
         <v>5.83</v>
       </c>
       <c r="F155" t="n">
-        <v>73622</v>
+        <v>43460</v>
       </c>
       <c r="G155" t="n">
-        <v>5.92883333333334</v>
+        <v>5.93233333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5853,10 +5853,10 @@
         <v>5.83</v>
       </c>
       <c r="F156" t="n">
-        <v>58756</v>
+        <v>73622</v>
       </c>
       <c r="G156" t="n">
-        <v>5.925500000000006</v>
+        <v>5.92883333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5888,10 +5888,10 @@
         <v>5.83</v>
       </c>
       <c r="F157" t="n">
-        <v>41923.7761</v>
+        <v>58756</v>
       </c>
       <c r="G157" t="n">
-        <v>5.92233333333334</v>
+        <v>5.925500000000006</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5923,10 +5923,10 @@
         <v>5.83</v>
       </c>
       <c r="F158" t="n">
-        <v>123256.1582</v>
+        <v>41923.7761</v>
       </c>
       <c r="G158" t="n">
-        <v>5.919833333333339</v>
+        <v>5.92233333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5958,10 +5958,10 @@
         <v>5.83</v>
       </c>
       <c r="F159" t="n">
-        <v>46143</v>
+        <v>123256.1582</v>
       </c>
       <c r="G159" t="n">
-        <v>5.917333333333338</v>
+        <v>5.919833333333339</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5984,19 +5984,19 @@
         <v>5.83</v>
       </c>
       <c r="C160" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="D160" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="E160" t="n">
         <v>5.83</v>
       </c>
       <c r="F160" t="n">
-        <v>35193</v>
+        <v>46143</v>
       </c>
       <c r="G160" t="n">
-        <v>5.916166666666672</v>
+        <v>5.917333333333338</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6016,22 +6016,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="C161" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="D161" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="E161" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="F161" t="n">
-        <v>42.2487</v>
+        <v>35193</v>
       </c>
       <c r="G161" t="n">
-        <v>5.914333333333338</v>
+        <v>5.916166666666672</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6063,10 +6063,10 @@
         <v>5.87</v>
       </c>
       <c r="F162" t="n">
-        <v>10</v>
+        <v>42.2487</v>
       </c>
       <c r="G162" t="n">
-        <v>5.912500000000005</v>
+        <v>5.914333333333338</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6101,7 +6101,7 @@
         <v>10</v>
       </c>
       <c r="G163" t="n">
-        <v>5.910000000000005</v>
+        <v>5.912500000000005</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6121,22 +6121,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="C164" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="D164" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="E164" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="F164" t="n">
-        <v>138.1486</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>5.906833333333338</v>
+        <v>5.910000000000005</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6168,10 +6168,10 @@
         <v>5.83</v>
       </c>
       <c r="F165" t="n">
-        <v>62.4513</v>
+        <v>138.1486</v>
       </c>
       <c r="G165" t="n">
-        <v>5.903666666666672</v>
+        <v>5.906833333333338</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6191,22 +6191,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C166" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="D166" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="E166" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F166" t="n">
-        <v>10877.226</v>
+        <v>62.4513</v>
       </c>
       <c r="G166" t="n">
-        <v>5.900500000000005</v>
+        <v>5.903666666666672</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6226,22 +6226,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C167" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D167" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E167" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F167" t="n">
-        <v>2845.8334</v>
+        <v>10877.226</v>
       </c>
       <c r="G167" t="n">
-        <v>5.897166666666672</v>
+        <v>5.900500000000005</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6273,10 +6273,10 @@
         <v>5.83</v>
       </c>
       <c r="F168" t="n">
-        <v>20000</v>
+        <v>2845.8334</v>
       </c>
       <c r="G168" t="n">
-        <v>5.895666666666671</v>
+        <v>5.897166666666672</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6308,10 +6308,10 @@
         <v>5.83</v>
       </c>
       <c r="F169" t="n">
-        <v>18268.2539</v>
+        <v>20000</v>
       </c>
       <c r="G169" t="n">
-        <v>5.892833333333338</v>
+        <v>5.895666666666671</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6343,10 +6343,10 @@
         <v>5.83</v>
       </c>
       <c r="F170" t="n">
-        <v>61440.954</v>
+        <v>18268.2539</v>
       </c>
       <c r="G170" t="n">
-        <v>5.890000000000004</v>
+        <v>5.892833333333338</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6378,10 +6378,10 @@
         <v>5.83</v>
       </c>
       <c r="F171" t="n">
-        <v>60122.3039</v>
+        <v>61440.954</v>
       </c>
       <c r="G171" t="n">
-        <v>5.887666666666671</v>
+        <v>5.890000000000004</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>5.83</v>
       </c>
       <c r="F172" t="n">
-        <v>30647.4628</v>
+        <v>60122.3039</v>
       </c>
       <c r="G172" t="n">
-        <v>5.885333333333336</v>
+        <v>5.887666666666671</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6436,22 +6436,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C173" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="D173" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="E173" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>30647.4628</v>
       </c>
       <c r="G173" t="n">
-        <v>5.882833333333337</v>
+        <v>5.885333333333336</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6471,22 +6471,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="C174" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="D174" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="E174" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="F174" t="n">
-        <v>12582.2333</v>
+        <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>5.87966666666667</v>
+        <v>5.882833333333337</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6509,19 +6509,19 @@
         <v>5.83</v>
       </c>
       <c r="C175" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="D175" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="E175" t="n">
         <v>5.83</v>
       </c>
       <c r="F175" t="n">
-        <v>16503.5561</v>
+        <v>12582.2333</v>
       </c>
       <c r="G175" t="n">
-        <v>5.877000000000004</v>
+        <v>5.87966666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C176" t="n">
         <v>5.86</v>
@@ -6550,13 +6550,13 @@
         <v>5.86</v>
       </c>
       <c r="E176" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F176" t="n">
-        <v>100</v>
+        <v>16503.5561</v>
       </c>
       <c r="G176" t="n">
-        <v>5.874333333333338</v>
+        <v>5.877000000000004</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6591,20 +6591,16 @@
         <v>100</v>
       </c>
       <c r="G177" t="n">
-        <v>5.873000000000005</v>
+        <v>5.874333333333338</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K177" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
@@ -6615,40 +6611,32 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="C178" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="D178" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="E178" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="F178" t="n">
-        <v>47.8632</v>
+        <v>100</v>
       </c>
       <c r="G178" t="n">
-        <v>5.871333333333338</v>
+        <v>5.873000000000005</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K178" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6670,28 +6658,20 @@
         <v>5.84</v>
       </c>
       <c r="F179" t="n">
-        <v>3305.1369</v>
+        <v>47.8632</v>
       </c>
       <c r="G179" t="n">
-        <v>5.869666666666671</v>
+        <v>5.871333333333338</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K179" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6701,35 +6681,31 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C180" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D180" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E180" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F180" t="n">
-        <v>66018.7767</v>
+        <v>3305.1369</v>
       </c>
       <c r="G180" t="n">
-        <v>5.867833333333337</v>
+        <v>5.869666666666671</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K180" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
@@ -6740,40 +6716,32 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C181" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="D181" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="E181" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F181" t="n">
-        <v>42080.5264</v>
+        <v>66018.7767</v>
       </c>
       <c r="G181" t="n">
-        <v>5.866666666666671</v>
+        <v>5.867833333333337</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K181" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6783,7 +6751,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C182" t="n">
         <v>5.87</v>
@@ -6792,31 +6760,23 @@
         <v>5.87</v>
       </c>
       <c r="E182" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F182" t="n">
-        <v>81874</v>
+        <v>42080.5264</v>
       </c>
       <c r="G182" t="n">
-        <v>5.867000000000004</v>
+        <v>5.866666666666671</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K182" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6838,23 +6798,19 @@
         <v>5.87</v>
       </c>
       <c r="F183" t="n">
-        <v>28364</v>
+        <v>81874</v>
       </c>
       <c r="G183" t="n">
-        <v>5.867333333333336</v>
+        <v>5.867000000000004</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K183" t="n">
-        <v>5.87</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
@@ -6865,22 +6821,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C184" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="D184" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="E184" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F184" t="n">
-        <v>559.7014</v>
+        <v>28364</v>
       </c>
       <c r="G184" t="n">
-        <v>5.866500000000003</v>
+        <v>5.867333333333336</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6889,14 +6845,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6906,22 +6856,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="C185" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="D185" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="E185" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="F185" t="n">
-        <v>30</v>
+        <v>559.7014</v>
       </c>
       <c r="G185" t="n">
-        <v>5.868000000000004</v>
+        <v>5.866500000000003</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6930,14 +6880,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6947,22 +6891,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="C186" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="D186" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="E186" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F186" t="n">
-        <v>74441.70699999999</v>
+        <v>30</v>
       </c>
       <c r="G186" t="n">
-        <v>5.869833333333337</v>
+        <v>5.868000000000004</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6982,22 +6926,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="C187" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="D187" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="E187" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="F187" t="n">
-        <v>25469</v>
+        <v>74441.70699999999</v>
       </c>
       <c r="G187" t="n">
-        <v>5.869333333333336</v>
+        <v>5.869833333333337</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7017,22 +6961,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C188" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="D188" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="E188" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F188" t="n">
-        <v>37663.4802</v>
+        <v>25469</v>
       </c>
       <c r="G188" t="n">
-        <v>5.86966666666667</v>
+        <v>5.869333333333336</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7052,22 +6996,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="C189" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="D189" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="E189" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="F189" t="n">
-        <v>83.3558</v>
+        <v>37663.4802</v>
       </c>
       <c r="G189" t="n">
-        <v>5.870000000000003</v>
+        <v>5.86966666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7087,22 +7031,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="C190" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="D190" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="E190" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="F190" t="n">
-        <v>21967</v>
+        <v>83.3558</v>
       </c>
       <c r="G190" t="n">
-        <v>5.869500000000002</v>
+        <v>5.870000000000003</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7122,19 +7066,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="C191" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="D191" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="E191" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="F191" t="n">
-        <v>10</v>
+        <v>21967</v>
       </c>
       <c r="G191" t="n">
         <v>5.869500000000002</v>
@@ -7157,22 +7101,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="C192" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="D192" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="E192" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="F192" t="n">
-        <v>149744.3971</v>
+        <v>10</v>
       </c>
       <c r="G192" t="n">
-        <v>5.869166666666668</v>
+        <v>5.869500000000002</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7204,10 +7148,10 @@
         <v>5.89</v>
       </c>
       <c r="F193" t="n">
-        <v>63541.4261</v>
+        <v>149744.3971</v>
       </c>
       <c r="G193" t="n">
-        <v>5.868833333333334</v>
+        <v>5.869166666666668</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7227,22 +7171,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C194" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="D194" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E194" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="F194" t="n">
-        <v>59458.3083</v>
+        <v>63541.4261</v>
       </c>
       <c r="G194" t="n">
-        <v>5.868</v>
+        <v>5.868833333333334</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7262,22 +7206,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="C195" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="D195" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E195" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="F195" t="n">
-        <v>10</v>
+        <v>59458.3083</v>
       </c>
       <c r="G195" t="n">
-        <v>5.867666666666667</v>
+        <v>5.868</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7309,10 +7253,10 @@
         <v>5.89</v>
       </c>
       <c r="F196" t="n">
-        <v>21487.691</v>
+        <v>10</v>
       </c>
       <c r="G196" t="n">
-        <v>5.867333333333333</v>
+        <v>5.867666666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7332,22 +7276,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C197" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="D197" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E197" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="F197" t="n">
-        <v>121892</v>
+        <v>21487.691</v>
       </c>
       <c r="G197" t="n">
-        <v>5.866666666666665</v>
+        <v>5.867333333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7379,10 +7323,10 @@
         <v>5.87</v>
       </c>
       <c r="F198" t="n">
-        <v>73394</v>
+        <v>121892</v>
       </c>
       <c r="G198" t="n">
-        <v>5.865999999999999</v>
+        <v>5.866666666666665</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7411,13 +7355,13 @@
         <v>5.87</v>
       </c>
       <c r="E199" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="F199" t="n">
-        <v>55323.4417</v>
+        <v>73394</v>
       </c>
       <c r="G199" t="n">
-        <v>5.865333333333331</v>
+        <v>5.865999999999999</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7446,13 +7390,13 @@
         <v>5.87</v>
       </c>
       <c r="E200" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F200" t="n">
-        <v>84213</v>
+        <v>55323.4417</v>
       </c>
       <c r="G200" t="n">
-        <v>5.865666666666665</v>
+        <v>5.865333333333331</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7484,10 +7428,10 @@
         <v>5.87</v>
       </c>
       <c r="F201" t="n">
-        <v>43989</v>
+        <v>84213</v>
       </c>
       <c r="G201" t="n">
-        <v>5.864999999999998</v>
+        <v>5.865666666666665</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7519,10 +7463,10 @@
         <v>5.87</v>
       </c>
       <c r="F202" t="n">
-        <v>47311</v>
+        <v>43989</v>
       </c>
       <c r="G202" t="n">
-        <v>5.864333333333331</v>
+        <v>5.864999999999998</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7554,10 +7498,10 @@
         <v>5.87</v>
       </c>
       <c r="F203" t="n">
-        <v>59969</v>
+        <v>47311</v>
       </c>
       <c r="G203" t="n">
-        <v>5.863666666666663</v>
+        <v>5.864333333333331</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7589,10 +7533,10 @@
         <v>5.87</v>
       </c>
       <c r="F204" t="n">
-        <v>67925</v>
+        <v>59969</v>
       </c>
       <c r="G204" t="n">
-        <v>5.862999999999997</v>
+        <v>5.863666666666663</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7624,10 +7568,10 @@
         <v>5.87</v>
       </c>
       <c r="F205" t="n">
-        <v>66674</v>
+        <v>67925</v>
       </c>
       <c r="G205" t="n">
-        <v>5.862333333333329</v>
+        <v>5.862999999999997</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7659,10 +7603,10 @@
         <v>5.87</v>
       </c>
       <c r="F206" t="n">
-        <v>68285</v>
+        <v>66674</v>
       </c>
       <c r="G206" t="n">
-        <v>5.861666666666663</v>
+        <v>5.862333333333329</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7685,19 +7629,19 @@
         <v>5.87</v>
       </c>
       <c r="C207" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="D207" t="n">
         <v>5.87</v>
       </c>
       <c r="E207" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="F207" t="n">
-        <v>57806</v>
+        <v>68285</v>
       </c>
       <c r="G207" t="n">
-        <v>5.860833333333329</v>
+        <v>5.861666666666663</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7717,22 +7661,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C208" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="D208" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="E208" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="F208" t="n">
-        <v>5600</v>
+        <v>57806</v>
       </c>
       <c r="G208" t="n">
-        <v>5.861333333333329</v>
+        <v>5.860833333333329</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7752,22 +7696,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="C209" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="D209" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="E209" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="F209" t="n">
-        <v>90427.7521</v>
+        <v>5600</v>
       </c>
       <c r="G209" t="n">
-        <v>5.860166666666661</v>
+        <v>5.861333333333329</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7799,10 +7743,10 @@
         <v>5.84</v>
       </c>
       <c r="F210" t="n">
-        <v>51807</v>
+        <v>90427.7521</v>
       </c>
       <c r="G210" t="n">
-        <v>5.860333333333328</v>
+        <v>5.860166666666661</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7834,10 +7778,10 @@
         <v>5.84</v>
       </c>
       <c r="F211" t="n">
-        <v>67877</v>
+        <v>51807</v>
       </c>
       <c r="G211" t="n">
-        <v>5.860499999999994</v>
+        <v>5.860333333333328</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7869,10 +7813,10 @@
         <v>5.84</v>
       </c>
       <c r="F212" t="n">
-        <v>68601</v>
+        <v>67877</v>
       </c>
       <c r="G212" t="n">
-        <v>5.860666666666661</v>
+        <v>5.860499999999994</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7904,10 +7848,10 @@
         <v>5.84</v>
       </c>
       <c r="F213" t="n">
-        <v>75595</v>
+        <v>68601</v>
       </c>
       <c r="G213" t="n">
-        <v>5.860833333333328</v>
+        <v>5.860666666666661</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7939,10 +7883,10 @@
         <v>5.84</v>
       </c>
       <c r="F214" t="n">
-        <v>47410</v>
+        <v>75595</v>
       </c>
       <c r="G214" t="n">
-        <v>5.860999999999994</v>
+        <v>5.860833333333328</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7962,7 +7906,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C215" t="n">
         <v>5.84</v>
@@ -7971,13 +7915,13 @@
         <v>5.84</v>
       </c>
       <c r="E215" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F215" t="n">
-        <v>106857.4139</v>
+        <v>47410</v>
       </c>
       <c r="G215" t="n">
-        <v>5.86116666666666</v>
+        <v>5.860999999999994</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7997,7 +7941,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C216" t="n">
         <v>5.84</v>
@@ -8006,13 +7950,13 @@
         <v>5.84</v>
       </c>
       <c r="E216" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F216" t="n">
-        <v>55707</v>
+        <v>106857.4139</v>
       </c>
       <c r="G216" t="n">
-        <v>5.861333333333326</v>
+        <v>5.86116666666666</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8041,13 +7985,13 @@
         <v>5.84</v>
       </c>
       <c r="E217" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F217" t="n">
-        <v>52404.0574</v>
+        <v>55707</v>
       </c>
       <c r="G217" t="n">
-        <v>5.861499999999993</v>
+        <v>5.861333333333326</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8076,13 +8020,13 @@
         <v>5.84</v>
       </c>
       <c r="E218" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F218" t="n">
-        <v>36869.1035</v>
+        <v>52404.0574</v>
       </c>
       <c r="G218" t="n">
-        <v>5.86166666666666</v>
+        <v>5.861499999999993</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8114,10 +8058,10 @@
         <v>5.84</v>
       </c>
       <c r="F219" t="n">
-        <v>346.7665</v>
+        <v>36869.1035</v>
       </c>
       <c r="G219" t="n">
-        <v>5.861833333333326</v>
+        <v>5.86166666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8149,10 +8093,10 @@
         <v>5.84</v>
       </c>
       <c r="F220" t="n">
-        <v>15000</v>
+        <v>346.7665</v>
       </c>
       <c r="G220" t="n">
-        <v>5.860666666666659</v>
+        <v>5.861833333333326</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8172,19 +8116,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="C221" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="D221" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="E221" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="F221" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G221" t="n">
         <v>5.860666666666659</v>
@@ -8210,19 +8154,19 @@
         <v>5.87</v>
       </c>
       <c r="C222" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="D222" t="n">
         <v>5.87</v>
       </c>
       <c r="E222" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="F222" t="n">
-        <v>39.95</v>
+        <v>100</v>
       </c>
       <c r="G222" t="n">
-        <v>5.860166666666658</v>
+        <v>5.860666666666659</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8242,22 +8186,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="C223" t="n">
         <v>5.84</v>
       </c>
       <c r="D223" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="E223" t="n">
         <v>5.84</v>
       </c>
       <c r="F223" t="n">
-        <v>11970</v>
+        <v>39.95</v>
       </c>
       <c r="G223" t="n">
-        <v>5.859666666666658</v>
+        <v>5.860166666666658</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8289,10 +8233,10 @@
         <v>5.84</v>
       </c>
       <c r="F224" t="n">
-        <v>84538.9186</v>
+        <v>11970</v>
       </c>
       <c r="G224" t="n">
-        <v>5.859833333333325</v>
+        <v>5.859666666666658</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8321,13 +8265,13 @@
         <v>5.84</v>
       </c>
       <c r="E225" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F225" t="n">
-        <v>87902.95</v>
+        <v>84538.9186</v>
       </c>
       <c r="G225" t="n">
-        <v>5.859999999999991</v>
+        <v>5.859833333333325</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8356,10 +8300,10 @@
         <v>5.84</v>
       </c>
       <c r="E226" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F226" t="n">
-        <v>10250.776</v>
+        <v>87902.95</v>
       </c>
       <c r="G226" t="n">
         <v>5.859999999999991</v>
@@ -8382,22 +8326,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="C227" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="D227" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="E227" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="F227" t="n">
-        <v>69918.4127</v>
+        <v>10250.776</v>
       </c>
       <c r="G227" t="n">
-        <v>5.860833333333324</v>
+        <v>5.859999999999991</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8417,7 +8361,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C228" t="n">
         <v>5.88</v>
@@ -8426,26 +8370,22 @@
         <v>5.88</v>
       </c>
       <c r="E228" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F228" t="n">
-        <v>62918</v>
+        <v>69918.4127</v>
       </c>
       <c r="G228" t="n">
-        <v>5.861666666666658</v>
+        <v>5.860833333333324</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K228" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
@@ -8465,30 +8405,59 @@
         <v>5.88</v>
       </c>
       <c r="E229" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F229" t="n">
+        <v>62918</v>
+      </c>
+      <c r="G229" t="n">
+        <v>5.861666666666658</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D230" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E230" t="n">
         <v>5.87</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F230" t="n">
         <v>100383.95</v>
       </c>
-      <c r="G229" t="n">
+      <c r="G230" t="n">
         <v>5.862499999999992</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest FAB.xlsx
+++ b/BackTest/2019-10-24 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>819764.0875000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>819764.0875000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5.82</v>
@@ -521,7 +521,7 @@
         <v>545569.3875000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5.82</v>
@@ -562,7 +562,7 @@
         <v>873290.3863000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>5.75</v>
@@ -603,7 +603,7 @@
         <v>915422.4826000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5.82</v>
@@ -644,7 +644,7 @@
         <v>1043039.2484</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>5.83</v>
@@ -685,9 +685,11 @@
         <v>1044556.0851</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J8" t="n">
         <v>5.82</v>
       </c>
@@ -841,9 +843,11 @@
         <v>1095898.966</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.89</v>
+      </c>
       <c r="J12" t="n">
         <v>5.82</v>
       </c>
@@ -919,11 +923,9 @@
         <v>1293578.3593</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>5.82</v>
       </c>
@@ -1194,7 +1196,7 @@
         <v>1869117.57569495</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
@@ -1202,11 +1204,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.022491408934708</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr"/>
     </row>
@@ -1233,11 +1235,17 @@
         <v>1839209.77009495</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1266,11 +1274,17 @@
         <v>1839209.77009495</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1302,8 +1316,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1335,8 +1355,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1368,8 +1394,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1401,8 +1433,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1434,8 +1472,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1464,11 +1508,17 @@
         <v>1188934.28769495</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1500,8 +1550,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1530,13 +1586,19 @@
         <v>1189344.28769495</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>1.001872852233677</v>
       </c>
       <c r="M31" t="inlineStr"/>
     </row>
@@ -1563,7 +1625,7 @@
         <v>1196212.13809495</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1596,7 +1658,7 @@
         <v>792082.4045949498</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1662,7 +1724,7 @@
         <v>922147.4045949498</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1695,7 +1757,7 @@
         <v>774864.1134949498</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1728,7 +1790,7 @@
         <v>800926.1134949498</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1763,12 +1825,8 @@
       <c r="H38" t="n">
         <v>2</v>
       </c>
-      <c r="I38" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.71</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1800,17 +1858,9 @@
       <c r="H39" t="n">
         <v>2</v>
       </c>
-      <c r="I39" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1839,17 +1889,11 @@
         <v>800916.1134949498</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1878,17 +1922,11 @@
         <v>801026.1134949498</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1920,14 +1958,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1956,17 +1988,11 @@
         <v>624220.3042949497</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1995,19 +2021,11 @@
         <v>624640.3042949497</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2038,17 +2056,9 @@
       <c r="H45" t="n">
         <v>2</v>
       </c>
-      <c r="I45" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2079,17 +2089,9 @@
       <c r="H46" t="n">
         <v>2</v>
       </c>
-      <c r="I46" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,17 +2120,11 @@
         <v>1390419.491339652</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2160,14 +2156,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2199,14 +2189,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2238,14 +2222,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2277,14 +2255,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2316,14 +2288,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2355,14 +2321,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2394,14 +2354,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2433,14 +2387,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2472,14 +2420,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2511,14 +2453,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2550,14 +2486,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2589,14 +2519,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2628,14 +2552,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2667,14 +2585,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2706,14 +2618,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2745,14 +2651,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2784,14 +2684,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2823,14 +2717,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2862,14 +2750,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2901,14 +2783,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2940,14 +2816,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2979,14 +2849,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3018,14 +2882,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3054,19 +2912,13 @@
         <v>1281630.204539652</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>1.04053415061296</v>
+        <v>1</v>
       </c>
       <c r="M71" t="inlineStr"/>
     </row>
@@ -3324,7 +3176,7 @@
         <v>1028095.368339652</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3588,7 +3440,7 @@
         <v>834507.626039652</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3621,7 +3473,7 @@
         <v>834507.626039652</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3654,7 +3506,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3687,7 +3539,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3720,7 +3572,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3753,7 +3605,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3786,7 +3638,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3819,7 +3671,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3852,7 +3704,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3885,7 +3737,7 @@
         <v>834318.867339652</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3918,7 +3770,7 @@
         <v>834338.867339652</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3951,7 +3803,7 @@
         <v>833828.6632580194</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3984,7 +3836,7 @@
         <v>833828.6632580194</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4017,7 +3869,7 @@
         <v>769139.0546580193</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4050,7 +3902,7 @@
         <v>683605.0546580193</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4083,7 +3935,7 @@
         <v>683625.0546580193</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4116,7 +3968,7 @@
         <v>683625.0546580193</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4149,7 +4001,7 @@
         <v>683645.0546580193</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4347,7 +4199,7 @@
         <v>683645.0546580193</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4380,7 +4232,7 @@
         <v>683645.0546580193</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4413,7 +4265,7 @@
         <v>680145.0546580193</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4446,7 +4298,7 @@
         <v>893740.0531580193</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4479,7 +4331,7 @@
         <v>893740.0531580193</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4512,7 +4364,7 @@
         <v>893740.0531580193</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4545,7 +4397,7 @@
         <v>893740.0531580193</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4578,7 +4430,7 @@
         <v>860079.2905580193</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4611,7 +4463,7 @@
         <v>833726.2905580193</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4644,7 +4496,7 @@
         <v>833716.2905580193</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4677,7 +4529,7 @@
         <v>833756.2905580193</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4710,7 +4562,7 @@
         <v>833766.2905580193</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4743,7 +4595,7 @@
         <v>833766.2905580193</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4776,7 +4628,7 @@
         <v>789919.2905580193</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4809,7 +4661,7 @@
         <v>832274.6425580193</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4842,7 +4694,7 @@
         <v>716133.9566580192</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4875,7 +4727,7 @@
         <v>716133.9566580192</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4908,7 +4760,7 @@
         <v>716133.9566580192</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5106,7 +4958,7 @@
         <v>694282.5188580193</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5139,7 +4991,7 @@
         <v>694282.5188580193</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5172,7 +5024,7 @@
         <v>694282.5188580193</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5205,7 +5057,7 @@
         <v>694302.5188580193</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5238,7 +5090,7 @@
         <v>694302.5188580193</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5304,7 +5156,7 @@
         <v>639171.7636580192</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5337,7 +5189,7 @@
         <v>639181.7636580192</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5370,7 +5222,7 @@
         <v>639181.7636580192</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5403,7 +5255,7 @@
         <v>684122.2336580192</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5436,7 +5288,7 @@
         <v>684122.2336580192</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5469,7 +5321,7 @@
         <v>684122.2336580192</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5535,7 +5387,7 @@
         <v>853803.3890580192</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5568,7 +5420,7 @@
         <v>962328.1520580192</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5601,7 +5453,7 @@
         <v>827569.4739580192</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5634,7 +5486,7 @@
         <v>811788.7431580191</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5667,7 +5519,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5700,7 +5552,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5733,7 +5585,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5766,7 +5618,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5799,7 +5651,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5832,7 +5684,7 @@
         <v>809829.4231580192</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5865,7 +5717,7 @@
         <v>809708.4231580192</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5898,7 +5750,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5931,7 +5783,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5964,7 +5816,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5997,7 +5849,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6030,7 +5882,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6063,7 +5915,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6096,7 +5948,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6129,7 +5981,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6162,7 +6014,7 @@
         <v>808161.7380580192</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6195,7 +6047,7 @@
         <v>808161.7380580192</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6228,7 +6080,7 @@
         <v>693798.9197580192</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6261,7 +6113,7 @@
         <v>708653.3157580191</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6294,7 +6146,7 @@
         <v>708653.3157580191</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6327,7 +6179,7 @@
         <v>623237.0699580191</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6360,7 +6212,7 @@
         <v>623237.0699580191</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6393,7 +6245,7 @@
         <v>630540.3725580191</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6426,7 +6278,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6459,7 +6311,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6492,7 +6344,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6525,7 +6377,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6558,7 +6410,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6591,7 +6443,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6624,7 +6476,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6756,7 +6608,7 @@
         <v>329163.9547580191</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6789,7 +6641,7 @@
         <v>270345.1637580191</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6822,7 +6674,7 @@
         <v>136750.1027580191</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6855,7 +6707,7 @@
         <v>136760.1027580191</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6888,7 +6740,7 @@
         <v>100131.9347580191</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6921,7 +6773,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6954,7 +6806,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6987,7 +6839,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7020,7 +6872,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7053,7 +6905,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7086,7 +6938,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7119,7 +6971,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7152,7 +7004,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7185,7 +7037,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7218,7 +7070,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7251,7 +7103,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7284,7 +7136,7 @@
         <v>79489.76905801911</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7317,7 +7169,7 @@
         <v>79509.76905801911</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7350,7 +7202,7 @@
         <v>79509.76905801911</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7383,7 +7235,7 @@
         <v>79509.76905801911</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7416,7 +7268,7 @@
         <v>79509.76905801911</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7449,7 +7301,7 @@
         <v>79509.76905801911</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -9429,10 +9281,14 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J264" t="n">
+        <v>5.87</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
@@ -9465,8 +9321,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9495,11 +9357,19 @@
         <v>-395777.4924419809</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J266" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9528,11 +9398,19 @@
         <v>-390177.4924419809</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="J267" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9561,11 +9439,19 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J268" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9594,11 +9480,19 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J269" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9627,15 +9521,19 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>5.84</v>
       </c>
       <c r="J270" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+        <v>5.87</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9664,17 +9562,17 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>5.84</v>
       </c>
       <c r="J271" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9705,17 +9603,17 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>5.84</v>
       </c>
       <c r="J272" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9746,15 +9644,19 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>5.84</v>
       </c>
       <c r="J273" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
+        <v>5.87</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9783,17 +9685,17 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>5.84</v>
       </c>
       <c r="J274" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -9824,13 +9726,13 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>5.84</v>
       </c>
       <c r="J275" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9865,13 +9767,13 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>5.84</v>
       </c>
       <c r="J276" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9906,13 +9808,13 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>5.84</v>
       </c>
       <c r="J277" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9947,13 +9849,13 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>5.84</v>
       </c>
       <c r="J278" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9988,13 +9890,13 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>5.84</v>
       </c>
       <c r="J279" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10029,13 +9931,13 @@
         <v>-480505.2445419809</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>5.84</v>
       </c>
       <c r="J280" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10070,13 +9972,13 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>5.87</v>
       </c>
       <c r="J281" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10111,13 +10013,13 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>5.84</v>
       </c>
       <c r="J282" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10152,13 +10054,13 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>5.84</v>
       </c>
       <c r="J283" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10193,13 +10095,13 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>5.84</v>
       </c>
       <c r="J284" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10234,13 +10136,13 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>5.84</v>
       </c>
       <c r="J285" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10275,13 +10177,13 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>5.84</v>
       </c>
       <c r="J286" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10316,13 +10218,13 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>5.88</v>
       </c>
       <c r="J287" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10357,13 +10259,13 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>5.88</v>
       </c>
       <c r="J288" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10398,13 +10300,13 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>5.88</v>
       </c>
       <c r="J289" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10439,13 +10341,13 @@
         <v>-410666.7318419809</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>5.88</v>
       </c>
       <c r="J290" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10480,13 +10382,13 @@
         <v>-410666.7318419809</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>5.86</v>
       </c>
       <c r="J291" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10521,13 +10423,13 @@
         <v>-410656.7318419809</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>5.86</v>
       </c>
       <c r="J292" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10562,11 +10464,13 @@
         <v>-249094.5736419809</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>5.93</v>
+      </c>
       <c r="J293" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10605,7 +10509,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10640,11 +10544,13 @@
         <v>-249194.4236419809</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>5.93</v>
+      </c>
       <c r="J295" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10683,7 +10589,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10722,7 +10628,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10761,7 +10667,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10774,6 +10680,6 @@
       <c r="M298" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest FAB.xlsx
+++ b/BackTest/2019-10-24 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>819764.0875000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>819764.0875000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.82</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>545569.3875000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>873290.3863000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>915422.4826000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>1043039.2484</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>1044556.0851</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -729,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -768,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -843,19 +781,11 @@
         <v>1095898.966</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -887,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -926,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -965,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1004,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1043,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1082,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1121,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1160,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1199,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1238,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1277,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1316,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1355,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1394,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1433,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1472,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1511,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1550,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1586,19 +1408,13 @@
         <v>1189344.28769495</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.001872852233677</v>
+        <v>1</v>
       </c>
       <c r="M31" t="inlineStr"/>
     </row>
@@ -1625,7 +1441,7 @@
         <v>1196212.13809495</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1658,7 +1474,7 @@
         <v>792082.4045949498</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1724,7 +1540,7 @@
         <v>922147.4045949498</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1757,7 +1573,7 @@
         <v>774864.1134949498</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1790,7 +1606,7 @@
         <v>800926.1134949498</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1856,7 +1672,7 @@
         <v>800916.1134949498</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1889,7 +1705,7 @@
         <v>800916.1134949498</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1922,7 +1738,7 @@
         <v>801026.1134949498</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1988,7 +1804,7 @@
         <v>624220.3042949497</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2054,7 +1870,7 @@
         <v>624620.3042949497</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2087,7 +1903,7 @@
         <v>1420073.491339652</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2120,7 +1936,7 @@
         <v>1390419.491339652</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -3440,7 +3256,7 @@
         <v>834507.626039652</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3473,7 +3289,7 @@
         <v>834507.626039652</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3506,7 +3322,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3539,7 +3355,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3572,7 +3388,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3605,7 +3421,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3638,7 +3454,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3671,7 +3487,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3704,7 +3520,7 @@
         <v>834527.626039652</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3737,7 +3553,7 @@
         <v>834318.867339652</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3770,7 +3586,7 @@
         <v>834338.867339652</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3803,7 +3619,7 @@
         <v>833828.6632580194</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3836,7 +3652,7 @@
         <v>833828.6632580194</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3869,7 +3685,7 @@
         <v>769139.0546580193</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3902,7 +3718,7 @@
         <v>683605.0546580193</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3935,7 +3751,7 @@
         <v>683625.0546580193</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3968,7 +3784,7 @@
         <v>683625.0546580193</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4001,7 +3817,7 @@
         <v>683645.0546580193</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4232,7 +4048,7 @@
         <v>683645.0546580193</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4265,7 +4081,7 @@
         <v>680145.0546580193</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4298,7 +4114,7 @@
         <v>893740.0531580193</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4331,7 +4147,7 @@
         <v>893740.0531580193</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4364,7 +4180,7 @@
         <v>893740.0531580193</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4397,7 +4213,7 @@
         <v>893740.0531580193</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4430,7 +4246,7 @@
         <v>860079.2905580193</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4463,7 +4279,7 @@
         <v>833726.2905580193</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4496,7 +4312,7 @@
         <v>833716.2905580193</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4529,7 +4345,7 @@
         <v>833756.2905580193</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4562,7 +4378,7 @@
         <v>833766.2905580193</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4595,7 +4411,7 @@
         <v>833766.2905580193</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4628,7 +4444,7 @@
         <v>789919.2905580193</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4661,7 +4477,7 @@
         <v>832274.6425580193</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4694,7 +4510,7 @@
         <v>716133.9566580192</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4727,7 +4543,7 @@
         <v>716133.9566580192</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4760,7 +4576,7 @@
         <v>716133.9566580192</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4958,7 +4774,7 @@
         <v>694282.5188580193</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4991,7 +4807,7 @@
         <v>694282.5188580193</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5024,7 +4840,7 @@
         <v>694282.5188580193</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5057,7 +4873,7 @@
         <v>694302.5188580193</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5090,7 +4906,7 @@
         <v>694302.5188580193</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5156,7 +4972,7 @@
         <v>639171.7636580192</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5189,7 +5005,7 @@
         <v>639181.7636580192</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5222,7 +5038,7 @@
         <v>639181.7636580192</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5255,7 +5071,7 @@
         <v>684122.2336580192</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5288,7 +5104,7 @@
         <v>684122.2336580192</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5321,7 +5137,7 @@
         <v>684122.2336580192</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5387,7 +5203,7 @@
         <v>853803.3890580192</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5420,7 +5236,7 @@
         <v>962328.1520580192</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5453,7 +5269,7 @@
         <v>827569.4739580192</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5486,7 +5302,7 @@
         <v>811788.7431580191</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5519,7 +5335,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5552,7 +5368,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5585,7 +5401,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5618,7 +5434,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5651,7 +5467,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5684,7 +5500,7 @@
         <v>809829.4231580192</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5717,7 +5533,7 @@
         <v>809708.4231580192</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5750,7 +5566,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5783,7 +5599,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5816,7 +5632,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5849,7 +5665,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5882,7 +5698,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5915,7 +5731,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5948,7 +5764,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5981,7 +5797,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6014,7 +5830,7 @@
         <v>808161.7380580192</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6047,7 +5863,7 @@
         <v>808161.7380580192</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6080,7 +5896,7 @@
         <v>693798.9197580192</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6113,7 +5929,7 @@
         <v>708653.3157580191</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6146,7 +5962,7 @@
         <v>708653.3157580191</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6179,7 +5995,7 @@
         <v>623237.0699580191</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6212,7 +6028,7 @@
         <v>623237.0699580191</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6245,7 +6061,7 @@
         <v>630540.3725580191</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6278,7 +6094,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6311,7 +6127,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6344,7 +6160,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6377,7 +6193,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6410,7 +6226,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6443,7 +6259,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6476,7 +6292,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6608,7 +6424,7 @@
         <v>329163.9547580191</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6641,7 +6457,7 @@
         <v>270345.1637580191</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6674,7 +6490,7 @@
         <v>136750.1027580191</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6707,7 +6523,7 @@
         <v>136760.1027580191</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6740,7 +6556,7 @@
         <v>100131.9347580191</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6773,7 +6589,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6806,7 +6622,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6839,7 +6655,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6872,7 +6688,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6905,7 +6721,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6938,7 +6754,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6971,7 +6787,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7004,7 +6820,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7037,7 +6853,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7070,7 +6886,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7103,7 +6919,7 @@
         <v>100141.9347580191</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7136,7 +6952,7 @@
         <v>79489.76905801911</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7169,7 +6985,7 @@
         <v>79509.76905801911</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7202,7 +7018,7 @@
         <v>79509.76905801911</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7235,7 +7051,7 @@
         <v>79509.76905801911</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7268,7 +7084,7 @@
         <v>79509.76905801911</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7301,7 +7117,7 @@
         <v>79509.76905801911</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7961,10 +7777,14 @@
         <v>15111.32705801911</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="J224" t="n">
+        <v>5.83</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
@@ -7994,11 +7814,19 @@
         <v>25988.55305801911</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="J225" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8027,11 +7855,19 @@
         <v>23142.71965801911</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J226" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8159,10 +7995,14 @@
         <v>23142.71965801911</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="J230" t="n">
+        <v>5.83</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
@@ -8195,8 +8035,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8228,8 +8074,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8489,10 +8341,14 @@
         <v>3087.928958019111</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="J240" t="n">
+        <v>5.83</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
@@ -8525,8 +8381,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8555,11 +8417,19 @@
         <v>3087.928958019111</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J242" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9281,14 +9151,10 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J264" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
@@ -9321,465 +9187,401 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
         <v>5.87</v>
       </c>
-      <c r="K265" t="inlineStr">
+      <c r="C266" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D266" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E266" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="F266" t="n">
+        <v>57806</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-395777.4924419809</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C267" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D267" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E267" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F267" t="n">
+        <v>5600</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-390177.4924419809</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C268" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D268" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E268" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F268" t="n">
+        <v>90427.7521</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-480605.2445419809</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C269" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D269" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E269" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F269" t="n">
+        <v>51807</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-480605.2445419809</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C270" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D270" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E270" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F270" t="n">
+        <v>67877</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-480605.2445419809</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C271" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D271" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E271" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F271" t="n">
+        <v>68601</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-480605.2445419809</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J271" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C272" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D272" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E272" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F272" t="n">
+        <v>75595</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-480605.2445419809</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J272" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C266" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D266" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E266" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F266" t="n">
-        <v>57806</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-395777.4924419809</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J266" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K266" t="inlineStr">
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C273" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D273" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E273" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F273" t="n">
+        <v>47410</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-480605.2445419809</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J273" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="C274" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D274" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E274" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F274" t="n">
+        <v>106857.4139</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-480605.2445419809</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C275" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D275" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E275" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F275" t="n">
+        <v>55707</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-480605.2445419809</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J275" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C276" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D276" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E276" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F276" t="n">
+        <v>52404.0574</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-480605.2445419809</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C267" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="D267" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E267" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F267" t="n">
-        <v>5600</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-390177.4924419809</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J267" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C268" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D268" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E268" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F268" t="n">
-        <v>90427.7521</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-480605.2445419809</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J268" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C269" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D269" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E269" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F269" t="n">
-        <v>51807</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-480605.2445419809</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J269" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C270" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D270" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E270" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F270" t="n">
-        <v>67877</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-480605.2445419809</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J270" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C271" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D271" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E271" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F271" t="n">
-        <v>68601</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-480605.2445419809</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J271" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C272" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D272" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E272" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F272" t="n">
-        <v>75595</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-480605.2445419809</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J272" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C273" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D273" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E273" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F273" t="n">
-        <v>47410</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-480605.2445419809</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J273" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="C274" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D274" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E274" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="F274" t="n">
-        <v>106857.4139</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-480605.2445419809</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J274" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C275" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D275" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E275" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F275" t="n">
-        <v>55707</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-480605.2445419809</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J275" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C276" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D276" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E276" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="F276" t="n">
-        <v>52404.0574</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-480605.2445419809</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J276" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9808,13 +9610,11 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9849,13 +9649,11 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9890,13 +9688,11 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9931,13 +9727,11 @@
         <v>-480505.2445419809</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9972,13 +9766,11 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10013,13 +9805,11 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10054,13 +9844,11 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10095,13 +9883,11 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10136,13 +9922,11 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10177,13 +9961,11 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10218,13 +10000,11 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>5.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10259,13 +10039,11 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>5.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10306,7 +10084,7 @@
         <v>5.88</v>
       </c>
       <c r="J289" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10347,7 +10125,7 @@
         <v>5.88</v>
       </c>
       <c r="J290" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10388,7 +10166,7 @@
         <v>5.86</v>
       </c>
       <c r="J291" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10429,7 +10207,7 @@
         <v>5.86</v>
       </c>
       <c r="J292" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10470,7 +10248,7 @@
         <v>5.93</v>
       </c>
       <c r="J293" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10505,11 +10283,13 @@
         <v>-249115.5736419809</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>5.94</v>
+      </c>
       <c r="J294" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10550,7 +10330,7 @@
         <v>5.93</v>
       </c>
       <c r="J295" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10585,11 +10365,13 @@
         <v>-249184.4236419809</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>5.88</v>
+      </c>
       <c r="J296" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10624,11 +10406,13 @@
         <v>-274861.4106419809</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>5.94</v>
+      </c>
       <c r="J297" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10663,11 +10447,13 @@
         <v>-126779.9267419809</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>5.9</v>
+      </c>
       <c r="J298" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10680,6 +10466,6 @@
       <c r="M298" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest FAB.xlsx
+++ b/BackTest/2019-10-24 BackTest FAB.xlsx
@@ -451,7 +451,7 @@
         <v>819764.0875000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>819764.0875000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>545569.3875000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>873290.3863000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>915422.4826000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1043039.2484</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1044556.0851</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1869117.57569495</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1869117.57569495</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1839209.77009495</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1839209.77009495</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1839209.77009495</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1839219.77009495</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1789234.802594949</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1763737.97359495</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1189401.28769495</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1188934.28769495</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1189344.28769495</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1196212.13809495</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>792082.4045949498</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>800936.1134949498</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>962328.1520580192</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>827569.4739580192</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>811788.7431580191</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>809829.4231580192</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>809708.4231580192</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>808161.7380580192</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>808161.7380580192</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>693798.9197580192</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>708653.3157580191</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>623237.0699580191</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>623237.0699580191</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>630540.3725580191</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7777,14 +7777,10 @@
         <v>15111.32705801911</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J224" t="n">
-        <v>5.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
@@ -7814,19 +7810,11 @@
         <v>25988.55305801911</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J225" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7855,19 +7843,11 @@
         <v>23142.71965801911</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J226" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7995,14 +7975,10 @@
         <v>23142.71965801911</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J230" t="n">
-        <v>5.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
@@ -8035,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8074,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8176,10 +8140,14 @@
         <v>27074.04245801911</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="J235" t="n">
+        <v>5.86</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
@@ -8209,11 +8177,19 @@
         <v>27074.04245801911</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="J236" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8242,11 +8218,19 @@
         <v>27026.17925801911</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="J237" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8275,10 +8259,14 @@
         <v>27026.17925801911</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J238" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
@@ -8308,11 +8296,19 @@
         <v>-38992.59744198089</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J239" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8347,9 +8343,13 @@
         <v>5.83</v>
       </c>
       <c r="J240" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8378,17 +8378,15 @@
         <v>3087.928958019111</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J241" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>5.87</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8423,7 +8421,7 @@
         <v>5.87</v>
       </c>
       <c r="J242" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8458,11 +8456,19 @@
         <v>3647.630358019111</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J243" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8491,10 +8497,14 @@
         <v>3677.630358019111</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J244" t="n">
+        <v>5.88</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
@@ -8527,8 +8537,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8560,8 +8576,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8590,10 +8612,14 @@
         <v>14986.85715801911</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J247" t="n">
+        <v>5.88</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
@@ -8626,8 +8652,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8659,8 +8691,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8788,11 +8826,17 @@
         <v>-216089.4924419809</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>5.89</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8821,11 +8865,17 @@
         <v>-216079.4924419809</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>5.86</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8854,11 +8904,17 @@
         <v>-216079.4924419809</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>5.89</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8887,11 +8943,17 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>5.89</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8920,11 +8982,17 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8953,11 +9021,17 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8986,11 +9060,17 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9019,11 +9099,17 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9052,11 +9138,17 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9085,11 +9177,17 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9118,11 +9216,17 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9151,11 +9255,17 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9184,11 +9294,17 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9217,11 +9333,17 @@
         <v>-395777.4924419809</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9250,11 +9372,17 @@
         <v>-390177.4924419809</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>5.86</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9283,11 +9411,17 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>5.88</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9316,11 +9450,17 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9349,11 +9489,17 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9387,10 +9533,12 @@
       <c r="I271" t="n">
         <v>5.84</v>
       </c>
-      <c r="J271" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9424,12 +9572,10 @@
       <c r="I272" t="n">
         <v>5.84</v>
       </c>
-      <c r="J272" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9465,12 +9611,10 @@
       <c r="I273" t="n">
         <v>5.84</v>
       </c>
-      <c r="J273" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -9501,11 +9645,17 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9539,10 +9689,12 @@
       <c r="I275" t="n">
         <v>5.84</v>
       </c>
-      <c r="J275" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9571,15 +9723,15 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -9610,12 +9762,12 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9649,12 +9801,12 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9688,12 +9840,12 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9727,12 +9879,12 @@
         <v>-480505.2445419809</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9766,12 +9918,12 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9805,12 +9957,12 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9844,12 +9996,12 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9883,12 +10035,12 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9922,12 +10074,12 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9961,12 +10113,12 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10000,12 +10152,12 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10039,12 +10191,12 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>5.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10083,9 +10235,7 @@
       <c r="I289" t="n">
         <v>5.88</v>
       </c>
-      <c r="J289" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10124,9 +10274,7 @@
       <c r="I290" t="n">
         <v>5.88</v>
       </c>
-      <c r="J290" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10165,9 +10313,7 @@
       <c r="I291" t="n">
         <v>5.86</v>
       </c>
-      <c r="J291" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10206,9 +10352,7 @@
       <c r="I292" t="n">
         <v>5.86</v>
       </c>
-      <c r="J292" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10247,9 +10391,7 @@
       <c r="I293" t="n">
         <v>5.93</v>
       </c>
-      <c r="J293" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10288,9 +10430,7 @@
       <c r="I294" t="n">
         <v>5.94</v>
       </c>
-      <c r="J294" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10329,9 +10469,7 @@
       <c r="I295" t="n">
         <v>5.93</v>
       </c>
-      <c r="J295" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10370,9 +10508,7 @@
       <c r="I296" t="n">
         <v>5.88</v>
       </c>
-      <c r="J296" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10411,9 +10547,7 @@
       <c r="I297" t="n">
         <v>5.94</v>
       </c>
-      <c r="J297" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10452,9 +10586,7 @@
       <c r="I298" t="n">
         <v>5.9</v>
       </c>
-      <c r="J298" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
